--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1414961.199024048</v>
+        <v>-1415715.376253546</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1296370.265119876</v>
+        <v>1296370.265119875</v>
       </c>
     </row>
     <row r="8">
@@ -1148,13 +1148,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="I8" t="n">
-        <v>6.841400149308679</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F9" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12.73205987707308</v>
-      </c>
       <c r="I9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.4065958057407</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>233.9456459132676</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.6031242145218</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>203.0552122059868</v>
       </c>
       <c r="I11" t="n">
-        <v>59.9788554479241</v>
+        <v>59.97885544792408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.36200082252512</v>
+        <v>66.36200082252509</v>
       </c>
       <c r="T11" t="n">
-        <v>89.59194205983395</v>
+        <v>89.59194205983394</v>
       </c>
       <c r="U11" t="n">
-        <v>119.978627968035</v>
+        <v>29.51145988655683</v>
       </c>
       <c r="V11" t="n">
-        <v>163.6400531256168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.9106927983136</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.2059377921274</v>
       </c>
       <c r="C12" t="n">
-        <v>41.38125313057583</v>
+        <v>41.3812531305758</v>
       </c>
       <c r="D12" t="n">
-        <v>16.11781970689884</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>26.31783459766103</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.74196653564397</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>5.750225239536416</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>83.63964069051126</v>
       </c>
       <c r="S12" t="n">
-        <v>166.7414821159791</v>
+        <v>35.41423625823914</v>
       </c>
       <c r="T12" t="n">
-        <v>67.76513049237279</v>
+        <v>67.76513049237276</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9238790503212</v>
+        <v>94.59663319258131</v>
       </c>
       <c r="V12" t="n">
-        <v>125.7013529872263</v>
+        <v>101.4733412916853</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.44573934573756</v>
+        <v>98.67375104127917</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>74.35544991956442</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.50473432419739</v>
+        <v>48.50473432419736</v>
       </c>
       <c r="C13" t="n">
-        <v>35.91957524088792</v>
+        <v>35.91957524088789</v>
       </c>
       <c r="D13" t="n">
-        <v>17.28822716047245</v>
+        <v>17.28822716047242</v>
       </c>
       <c r="E13" t="n">
-        <v>15.10671678882926</v>
+        <v>15.10671678882923</v>
       </c>
       <c r="F13" t="n">
-        <v>14.09380216519133</v>
+        <v>14.09380216519131</v>
       </c>
       <c r="G13" t="n">
-        <v>36.4406894161061</v>
+        <v>36.44068941610607</v>
       </c>
       <c r="H13" t="n">
-        <v>28.91686197014273</v>
+        <v>28.9168619701427</v>
       </c>
       <c r="I13" t="n">
-        <v>17.41568514316424</v>
+        <v>17.41568514316421</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.93727240584205</v>
+        <v>35.93727240584202</v>
       </c>
       <c r="S13" t="n">
-        <v>88.80230208648118</v>
+        <v>88.80230208648115</v>
       </c>
       <c r="T13" t="n">
-        <v>95.66533702719623</v>
+        <v>95.6653370271962</v>
       </c>
       <c r="U13" t="n">
         <v>154.9796174577721</v>
@@ -1591,10 +1591,10 @@
         <v>155.1957524788511</v>
       </c>
       <c r="X13" t="n">
-        <v>94.38240953129724</v>
+        <v>94.38240953129721</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.25740749435488</v>
+        <v>87.25740749435485</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>251.4065958057407</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.9456459132677</v>
       </c>
       <c r="D14" t="n">
-        <v>12.05050999408371</v>
+        <v>223.3557957629431</v>
       </c>
       <c r="E14" t="n">
-        <v>250.6031242145219</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>224.3402030686647</v>
       </c>
       <c r="G14" t="n">
-        <v>283.4782531316253</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H14" t="n">
-        <v>203.0552122059868</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.97885544792411</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.36200082252512</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.59194205983397</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.9106927983137</v>
+        <v>254.9106927983138</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.0735901781796</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.38125313057583</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>16.11781970689884</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>26.31783459766103</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.74196653564397</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>5.750225239536416</v>
+        <v>113.6178776255876</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.41423625823916</v>
+        <v>35.41423625823925</v>
       </c>
       <c r="T15" t="n">
-        <v>67.76513049237279</v>
+        <v>67.76513049237288</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9238790503212</v>
+        <v>94.59663319258142</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.4733412916854</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>120.3677373031798</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.44573934573765</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>74.35544991956453</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.50473432419739</v>
+        <v>48.50473432419747</v>
       </c>
       <c r="C16" t="n">
-        <v>35.91957524088792</v>
+        <v>35.91957524088801</v>
       </c>
       <c r="D16" t="n">
-        <v>17.28822716047245</v>
+        <v>17.28822716047253</v>
       </c>
       <c r="E16" t="n">
-        <v>15.10671678882926</v>
+        <v>15.10671678882935</v>
       </c>
       <c r="F16" t="n">
-        <v>14.09380216519133</v>
+        <v>14.09380216519142</v>
       </c>
       <c r="G16" t="n">
-        <v>36.4406894161061</v>
+        <v>36.44068941610619</v>
       </c>
       <c r="H16" t="n">
-        <v>28.91686197014273</v>
+        <v>28.91686197014281</v>
       </c>
       <c r="I16" t="n">
-        <v>17.41568514316424</v>
+        <v>17.41568514316432</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.93727240584205</v>
+        <v>35.93727240584214</v>
       </c>
       <c r="S16" t="n">
-        <v>88.80230208648118</v>
+        <v>88.80230208648126</v>
       </c>
       <c r="T16" t="n">
-        <v>95.66533702719623</v>
+        <v>95.66533702719632</v>
       </c>
       <c r="U16" t="n">
-        <v>154.9796174577721</v>
+        <v>154.9796174577722</v>
       </c>
       <c r="V16" t="n">
-        <v>120.8103974660881</v>
+        <v>120.8103974660882</v>
       </c>
       <c r="W16" t="n">
-        <v>155.1957524788511</v>
+        <v>155.1957524788512</v>
       </c>
       <c r="X16" t="n">
-        <v>94.38240953129724</v>
+        <v>94.38240953129733</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.25740749435488</v>
+        <v>87.25740749435496</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.9409165143533</v>
+        <v>144.9409165143534</v>
       </c>
       <c r="C17" t="n">
-        <v>127.4799666218803</v>
+        <v>127.4799666218804</v>
       </c>
       <c r="D17" t="n">
-        <v>116.8901164715557</v>
+        <v>116.8901164715558</v>
       </c>
       <c r="E17" t="n">
-        <v>144.1374449231345</v>
+        <v>144.1374449231346</v>
       </c>
       <c r="F17" t="n">
-        <v>169.0831205925842</v>
+        <v>169.0831205925843</v>
       </c>
       <c r="G17" t="n">
-        <v>177.012573840238</v>
+        <v>177.0125738402384</v>
       </c>
       <c r="H17" t="n">
-        <v>96.58953291459949</v>
+        <v>96.58953291459957</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.51294867664765</v>
+        <v>13.51294867664774</v>
       </c>
       <c r="V17" t="n">
-        <v>89.95933332100765</v>
+        <v>89.95933332100773</v>
       </c>
       <c r="W17" t="n">
         <v>111.4480435682858</v>
       </c>
       <c r="X17" t="n">
-        <v>131.9381755293418</v>
+        <v>131.9381755293419</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.4450135069263</v>
+        <v>148.4450135069264</v>
       </c>
     </row>
     <row r="18">
@@ -1923,19 +1923,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>10.32037350092443</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7.24772395932227</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9238790503212</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>180.0615361057727</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.51393816638475</v>
+        <v>228.5754742721573</v>
       </c>
       <c r="V19" t="n">
-        <v>14.34471817470074</v>
+        <v>14.34471817470083</v>
       </c>
       <c r="W19" t="n">
-        <v>48.73007318746374</v>
+        <v>48.73007318746383</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>88.79918698660707</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>184.522303038756</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2296,7 +2296,7 @@
         <v>48.51393816638484</v>
       </c>
       <c r="V22" t="n">
-        <v>14.34471817470083</v>
+        <v>194.4062542804733</v>
       </c>
       <c r="W22" t="n">
         <v>48.73007318746383</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.0615361057725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>42.66813910143099</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.7414821159791</v>
+        <v>39.36422186305303</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9238790503212</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>13.90205801179243</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>112.5763934301506</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.48514267562186</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>48.73007318746383</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>180.0615361057725</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2646,10 +2646,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>81.10324426627093</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.10324426627071</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>48.81664074114354</v>
       </c>
       <c r="U27" t="n">
-        <v>75.64814344135208</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>82.5248515404561</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2728,7 +2728,7 @@
         <v>17.49219966487685</v>
       </c>
       <c r="H28" t="n">
-        <v>9.968372218913469</v>
+        <v>9.968372218913467</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>264.529763380396</v>
       </c>
       <c r="H29" t="n">
-        <v>184.1067224547575</v>
+        <v>184.1067224547576</v>
       </c>
       <c r="I29" t="n">
-        <v>41.03036569669482</v>
+        <v>41.03036569669485</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.41351107129584</v>
+        <v>47.41351107129586</v>
       </c>
       <c r="T29" t="n">
-        <v>70.64345230860467</v>
+        <v>70.64345230860469</v>
       </c>
       <c r="U29" t="n">
         <v>101.0301382168057</v>
@@ -2855,7 +2855,7 @@
         <v>198.9652331084438</v>
       </c>
       <c r="X29" t="n">
-        <v>219.4553650694998</v>
+        <v>219.4553650694999</v>
       </c>
       <c r="Y29" t="n">
         <v>235.9622030470844</v>
@@ -2877,13 +2877,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.369344846431773</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>110.7672552849736</v>
+        <v>16.4657465070099</v>
       </c>
       <c r="T30" t="n">
-        <v>48.81664074114351</v>
+        <v>129.9198850074144</v>
       </c>
       <c r="U30" t="n">
-        <v>75.64814344135205</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>101.4192475519504</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.5562445729681</v>
+        <v>29.55624457296813</v>
       </c>
       <c r="C31" t="n">
-        <v>16.97108548965863</v>
+        <v>16.97108548965866</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.49219966487682</v>
+        <v>17.49219966487685</v>
       </c>
       <c r="H31" t="n">
-        <v>9.968372218913441</v>
+        <v>9.968372218913467</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.98878265461276</v>
+        <v>16.98878265461279</v>
       </c>
       <c r="S31" t="n">
-        <v>69.85381233525189</v>
+        <v>69.85381233525192</v>
       </c>
       <c r="T31" t="n">
-        <v>76.71684727596694</v>
+        <v>76.71684727596697</v>
       </c>
       <c r="U31" t="n">
         <v>136.0311277065428</v>
@@ -3013,10 +3013,10 @@
         <v>136.2472627276218</v>
       </c>
       <c r="X31" t="n">
-        <v>75.43391978006795</v>
+        <v>75.43391978006798</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.30891774312559</v>
+        <v>68.30891774312562</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228.4989818045956</v>
+        <v>228.4989818045957</v>
       </c>
       <c r="C32" t="n">
         <v>211.0380319121226</v>
       </c>
       <c r="D32" t="n">
-        <v>200.448181761798</v>
+        <v>200.4481817617981</v>
       </c>
       <c r="E32" t="n">
-        <v>227.6955102133768</v>
+        <v>227.6955102133769</v>
       </c>
       <c r="F32" t="n">
         <v>252.6411858828265</v>
@@ -3047,7 +3047,7 @@
         <v>180.1475982048418</v>
       </c>
       <c r="I32" t="n">
-        <v>37.07124144677908</v>
+        <v>37.07124144677911</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.4543868213801</v>
+        <v>43.45438682138013</v>
       </c>
       <c r="T32" t="n">
-        <v>66.68432805868895</v>
+        <v>66.68432805868898</v>
       </c>
       <c r="U32" t="n">
-        <v>97.07101396688998</v>
+        <v>97.07101396689001</v>
       </c>
       <c r="V32" t="n">
         <v>173.51739861125</v>
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>103.3482114833803</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>92.98061701601767</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.7414821159791</v>
+        <v>12.50662225709417</v>
       </c>
       <c r="T33" t="n">
-        <v>44.85751649122778</v>
+        <v>44.85751649122781</v>
       </c>
       <c r="U33" t="n">
-        <v>71.68901919143632</v>
+        <v>71.68901919143634</v>
       </c>
       <c r="V33" t="n">
-        <v>78.56572729054034</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.59712032305237</v>
+        <v>25.59712032305239</v>
       </c>
       <c r="C34" t="n">
-        <v>13.0119612397429</v>
+        <v>13.01196123974293</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.53307541496108</v>
+        <v>13.53307541496111</v>
       </c>
       <c r="H34" t="n">
-        <v>6.009247968997708</v>
+        <v>6.009247968997736</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.02965840469703</v>
+        <v>13.02965840469706</v>
       </c>
       <c r="S34" t="n">
-        <v>65.89468808533616</v>
+        <v>65.89468808533618</v>
       </c>
       <c r="T34" t="n">
-        <v>72.75772302605121</v>
+        <v>72.75772302605124</v>
       </c>
       <c r="U34" t="n">
         <v>132.0720034566271</v>
       </c>
       <c r="V34" t="n">
-        <v>97.90278346494307</v>
+        <v>97.9027834649431</v>
       </c>
       <c r="W34" t="n">
         <v>132.2881384777061</v>
       </c>
       <c r="X34" t="n">
-        <v>71.47479553015222</v>
+        <v>71.47479553015225</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.34979349320986</v>
+        <v>64.34979349320989</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>203.9156296733156</v>
       </c>
       <c r="G35" t="n">
-        <v>211.8450829209694</v>
+        <v>211.8450829209693</v>
       </c>
       <c r="H35" t="n">
         <v>131.4220419953309</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.95877184917802</v>
+        <v>17.95877184917799</v>
       </c>
       <c r="U35" t="n">
-        <v>48.34545775737905</v>
+        <v>48.34545775737902</v>
       </c>
       <c r="V35" t="n">
         <v>124.791842401739</v>
       </c>
       <c r="W35" t="n">
-        <v>146.2805526490172</v>
+        <v>146.2805526490171</v>
       </c>
       <c r="X35" t="n">
-        <v>166.7706846100732</v>
+        <v>166.7706846100731</v>
       </c>
       <c r="Y35" t="n">
         <v>183.2775225876577</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,19 +3351,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.63964069051126</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>16.09217171361605</v>
       </c>
       <c r="T36" t="n">
         <v>199.0923763501127</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>2.812569135081617</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>45.21363114103656</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.16913187582523</v>
+        <v>17.1691318758252</v>
       </c>
       <c r="T37" t="n">
-        <v>24.03216681654028</v>
+        <v>24.03216681654025</v>
       </c>
       <c r="U37" t="n">
-        <v>83.34644724711615</v>
+        <v>83.34644724711612</v>
       </c>
       <c r="V37" t="n">
-        <v>49.17722725543214</v>
+        <v>49.17722725543211</v>
       </c>
       <c r="W37" t="n">
-        <v>83.56258226819514</v>
+        <v>83.56258226819511</v>
       </c>
       <c r="X37" t="n">
-        <v>22.74923932064129</v>
+        <v>22.74923932064127</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.62423728369893</v>
+        <v>15.6242372836989</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>203.9156296733156</v>
       </c>
       <c r="G38" t="n">
-        <v>211.8450829209694</v>
+        <v>211.8450829209693</v>
       </c>
       <c r="H38" t="n">
         <v>131.4220419953309</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.95877184917802</v>
+        <v>17.95877184917799</v>
       </c>
       <c r="U38" t="n">
-        <v>48.34545775737905</v>
+        <v>48.34545775737902</v>
       </c>
       <c r="V38" t="n">
         <v>124.791842401739</v>
       </c>
       <c r="W38" t="n">
-        <v>146.2805526490172</v>
+        <v>146.2805526490171</v>
       </c>
       <c r="X38" t="n">
-        <v>166.7706846100732</v>
+        <v>166.7706846100731</v>
       </c>
       <c r="Y38" t="n">
         <v>183.2775225876577</v>
@@ -3588,16 +3588,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I39" t="n">
         <v>80.23671347604525</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>60.94239482279335</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9238790503212</v>
+        <v>197.7678838946866</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.16913187582523</v>
+        <v>17.1691318758252</v>
       </c>
       <c r="T40" t="n">
-        <v>24.03216681654028</v>
+        <v>24.03216681654025</v>
       </c>
       <c r="U40" t="n">
-        <v>83.34644724711615</v>
+        <v>83.34644724711612</v>
       </c>
       <c r="V40" t="n">
-        <v>49.17722725543214</v>
+        <v>49.17722725543211</v>
       </c>
       <c r="W40" t="n">
-        <v>83.56258226819514</v>
+        <v>83.56258226819511</v>
       </c>
       <c r="X40" t="n">
-        <v>22.74923932064129</v>
+        <v>22.74923932064127</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.62423728369893</v>
+        <v>15.6242372836989</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.7734255950847</v>
+        <v>179.7734255950848</v>
       </c>
       <c r="C41" t="n">
         <v>162.3124757026117</v>
       </c>
       <c r="D41" t="n">
-        <v>151.7226255522871</v>
+        <v>151.7226255522872</v>
       </c>
       <c r="E41" t="n">
         <v>178.969954003866</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.95877184917805</v>
+        <v>17.95877184917807</v>
       </c>
       <c r="U41" t="n">
-        <v>48.34545775737908</v>
+        <v>48.34545775737911</v>
       </c>
       <c r="V41" t="n">
         <v>124.7918424017391</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>60.94239482279392</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I42" t="n">
-        <v>80.23671347604525</v>
+        <v>52.97708021877074</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.16913187582526</v>
+        <v>17.16913187582528</v>
       </c>
       <c r="T43" t="n">
-        <v>24.03216681654031</v>
+        <v>24.03216681654034</v>
       </c>
       <c r="U43" t="n">
-        <v>83.34644724711617</v>
+        <v>83.3464472471162</v>
       </c>
       <c r="V43" t="n">
-        <v>49.17722725543217</v>
+        <v>49.1772272554322</v>
       </c>
       <c r="W43" t="n">
-        <v>83.56258226819517</v>
+        <v>83.5625822681952</v>
       </c>
       <c r="X43" t="n">
-        <v>22.74923932064132</v>
+        <v>22.74923932064135</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.62423728369896</v>
+        <v>15.62423728369899</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>203.9156296733156</v>
       </c>
       <c r="G44" t="n">
-        <v>211.8450829209693</v>
+        <v>211.8450829209694</v>
       </c>
       <c r="H44" t="n">
         <v>131.4220419953309</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>17.95877184917799</v>
+        <v>17.95877184917802</v>
       </c>
       <c r="U44" t="n">
-        <v>48.34545775737902</v>
+        <v>48.34545775737905</v>
       </c>
       <c r="V44" t="n">
         <v>124.791842401739</v>
       </c>
       <c r="W44" t="n">
-        <v>146.2805526490171</v>
+        <v>146.2805526490172</v>
       </c>
       <c r="X44" t="n">
-        <v>166.7706846100731</v>
+        <v>166.7706846100732</v>
       </c>
       <c r="Y44" t="n">
         <v>183.2775225876577</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>89.37103333217388</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.63964069051126</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4.10163720156285</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9238790503212</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.1691318758252</v>
+        <v>17.16913187582523</v>
       </c>
       <c r="T46" t="n">
-        <v>24.03216681654025</v>
+        <v>24.03216681654028</v>
       </c>
       <c r="U46" t="n">
-        <v>83.34644724711612</v>
+        <v>83.34644724711615</v>
       </c>
       <c r="V46" t="n">
-        <v>49.17722725543211</v>
+        <v>49.17722725543214</v>
       </c>
       <c r="W46" t="n">
-        <v>83.56258226819511</v>
+        <v>83.56258226819514</v>
       </c>
       <c r="X46" t="n">
-        <v>22.74923932064127</v>
+        <v>22.74923932064129</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.6242372836989</v>
+        <v>15.62423728369893</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="F8" t="n">
-        <v>35.66202407096459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="G8" t="n">
-        <v>20.20471344961605</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H8" t="n">
-        <v>20.20471344961605</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M8" t="n">
-        <v>46.6733494211619</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C9" t="n">
         <v>45.75363943919166</v>
@@ -4866,16 +4866,16 @@
         <v>45.75363943919166</v>
       </c>
       <c r="E9" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
         <v>1.978351653996518</v>
@@ -4887,10 +4887,10 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
         <v>30.9115297805728</v>
@@ -4920,13 +4920,13 @@
         <v>61.2109500605402</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="C10" t="n">
         <v>16.68152962255934</v>
@@ -4945,22 +4945,22 @@
         <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4993,19 +4993,19 @@
         <v>58.46202002507908</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="V10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="W10" t="n">
-        <v>32.13884024390788</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X10" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>818.6740374092343</v>
+        <v>1071.808506312792</v>
       </c>
       <c r="C11" t="n">
-        <v>582.3653041635093</v>
+        <v>835.4997730670671</v>
       </c>
       <c r="D11" t="n">
-        <v>582.3653041635093</v>
+        <v>835.4997730670671</v>
       </c>
       <c r="E11" t="n">
-        <v>582.3653041635093</v>
+        <v>582.3653041635096</v>
       </c>
       <c r="F11" t="n">
-        <v>582.3653041635093</v>
+        <v>582.3653041635096</v>
       </c>
       <c r="G11" t="n">
-        <v>296.0236343335847</v>
+        <v>296.0236343335846</v>
       </c>
       <c r="H11" t="n">
-        <v>90.91735937804243</v>
+        <v>90.91735937804239</v>
       </c>
       <c r="I11" t="n">
         <v>30.33265690539179</v>
       </c>
       <c r="J11" t="n">
-        <v>60.28333378761806</v>
+        <v>60.28333378761818</v>
       </c>
       <c r="K11" t="n">
-        <v>225.9164387697122</v>
+        <v>225.9164387697123</v>
       </c>
       <c r="L11" t="n">
-        <v>483.675579323241</v>
+        <v>483.6755793232413</v>
       </c>
       <c r="M11" t="n">
-        <v>787.0888335313483</v>
+        <v>787.0888335313485</v>
       </c>
       <c r="N11" t="n">
         <v>1080.779633855521</v>
@@ -5060,10 +5060,10 @@
         <v>1473.364432310758</v>
       </c>
       <c r="Q11" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R11" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S11" t="n">
         <v>1449.600521206433</v>
@@ -5072,19 +5072,19 @@
         <v>1359.103610034883</v>
       </c>
       <c r="U11" t="n">
-        <v>1237.913076733838</v>
+        <v>1329.294054593917</v>
       </c>
       <c r="V11" t="n">
-        <v>1072.620093778669</v>
+        <v>1329.294054593917</v>
       </c>
       <c r="W11" t="n">
-        <v>1072.620093778669</v>
+        <v>1329.294054593917</v>
       </c>
       <c r="X11" t="n">
-        <v>1072.620093778669</v>
+        <v>1329.294054593917</v>
       </c>
       <c r="Y11" t="n">
-        <v>1072.620093778669</v>
+        <v>1071.808506312792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>134.6852823703575</v>
+        <v>665.3004171491046</v>
       </c>
       <c r="C12" t="n">
-        <v>92.88603678391731</v>
+        <v>623.5011715626645</v>
       </c>
       <c r="D12" t="n">
-        <v>76.60541081735282</v>
+        <v>474.5667619014131</v>
       </c>
       <c r="E12" t="n">
-        <v>50.0217395065841</v>
+        <v>315.3293068959576</v>
       </c>
       <c r="F12" t="n">
-        <v>36.14096522815584</v>
+        <v>168.7947489228426</v>
       </c>
       <c r="G12" t="n">
         <v>30.33265690539179</v>
@@ -5118,7 +5118,7 @@
         <v>30.33265690539179</v>
       </c>
       <c r="J12" t="n">
-        <v>54.47769519076503</v>
+        <v>54.47769519076504</v>
       </c>
       <c r="K12" t="n">
         <v>222.3662545003936</v>
@@ -5127,43 +5127,43 @@
         <v>509.5175375140811</v>
       </c>
       <c r="M12" t="n">
-        <v>884.8841667183044</v>
+        <v>884.8841667183045</v>
       </c>
       <c r="N12" t="n">
-        <v>1205.213295530579</v>
+        <v>1260.250795922528</v>
       </c>
       <c r="O12" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="P12" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="Q12" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R12" t="n">
-        <v>1432.148359723618</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S12" t="n">
-        <v>1263.722620212528</v>
+        <v>1396.376403907215</v>
       </c>
       <c r="T12" t="n">
-        <v>1195.272993452556</v>
+        <v>1327.926777147243</v>
       </c>
       <c r="U12" t="n">
-        <v>967.067055017888</v>
+        <v>1232.374622407262</v>
       </c>
       <c r="V12" t="n">
-        <v>840.0959913944271</v>
+        <v>1129.876297870206</v>
       </c>
       <c r="W12" t="n">
-        <v>585.8586346662255</v>
+        <v>875.6389411420046</v>
       </c>
       <c r="X12" t="n">
-        <v>510.6609181553795</v>
+        <v>775.9684855447529</v>
       </c>
       <c r="Y12" t="n">
-        <v>302.9006193904256</v>
+        <v>700.8619704744858</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197.1827153748807</v>
+        <v>197.1827153748805</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9003161416606</v>
+        <v>160.9003161416604</v>
       </c>
       <c r="D13" t="n">
-        <v>143.4374604240117</v>
+        <v>143.4374604240115</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1781505363053</v>
+        <v>128.1781505363052</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9419867330818</v>
+        <v>113.9419867330817</v>
       </c>
       <c r="G13" t="n">
-        <v>77.1332095450958</v>
+        <v>77.13320954509574</v>
       </c>
       <c r="H13" t="n">
-        <v>47.92425806010314</v>
+        <v>47.92425806010311</v>
       </c>
       <c r="I13" t="n">
         <v>30.33265690539179</v>
       </c>
       <c r="J13" t="n">
-        <v>83.53256660334799</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K13" t="n">
-        <v>217.1542737070442</v>
+        <v>163.954364009088</v>
       </c>
       <c r="L13" t="n">
-        <v>407.3113387517309</v>
+        <v>354.1114290537748</v>
       </c>
       <c r="M13" t="n">
-        <v>611.1268927019133</v>
+        <v>557.9269830039573</v>
       </c>
       <c r="N13" t="n">
-        <v>818.6222264430889</v>
+        <v>684.8282512933475</v>
       </c>
       <c r="O13" t="n">
-        <v>1004.186481325181</v>
+        <v>870.3925061754397</v>
       </c>
       <c r="P13" t="n">
-        <v>1028.198661512617</v>
+        <v>1024.418659762038</v>
       </c>
       <c r="Q13" t="n">
-        <v>1087.622341912336</v>
+        <v>1087.622341912335</v>
       </c>
       <c r="R13" t="n">
         <v>1051.322066754919</v>
       </c>
       <c r="S13" t="n">
-        <v>961.6227717180697</v>
+        <v>961.6227717180693</v>
       </c>
       <c r="T13" t="n">
-        <v>864.9911181552452</v>
+        <v>864.9911181552449</v>
       </c>
       <c r="U13" t="n">
-        <v>708.4460500160815</v>
+        <v>708.4460500160811</v>
       </c>
       <c r="V13" t="n">
-        <v>586.4153455048813</v>
+        <v>586.4153455048811</v>
       </c>
       <c r="W13" t="n">
-        <v>429.6519591626075</v>
+        <v>429.6519591626072</v>
       </c>
       <c r="X13" t="n">
-        <v>334.316191959277</v>
+        <v>334.3161919592767</v>
       </c>
       <c r="Y13" t="n">
-        <v>246.1773965104337</v>
+        <v>246.1773965104334</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>847.672005384323</v>
+        <v>1005.201240619029</v>
       </c>
       <c r="C14" t="n">
-        <v>847.672005384323</v>
+        <v>768.8925073733041</v>
       </c>
       <c r="D14" t="n">
-        <v>835.4997730670666</v>
+        <v>543.2805924612403</v>
       </c>
       <c r="E14" t="n">
-        <v>582.3653041635091</v>
+        <v>543.2805924612403</v>
       </c>
       <c r="F14" t="n">
-        <v>582.3653041635091</v>
+        <v>316.6743267353164</v>
       </c>
       <c r="G14" t="n">
-        <v>296.0236343335846</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H14" t="n">
-        <v>90.91735937804241</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I14" t="n">
         <v>30.33265690539179</v>
       </c>
       <c r="J14" t="n">
-        <v>60.28333378761818</v>
+        <v>60.28333378761806</v>
       </c>
       <c r="K14" t="n">
         <v>225.9164387697122</v>
       </c>
       <c r="L14" t="n">
-        <v>483.6755793232412</v>
+        <v>483.675579323241</v>
       </c>
       <c r="M14" t="n">
-        <v>787.0888335313484</v>
+        <v>787.0888335313483</v>
       </c>
       <c r="N14" t="n">
         <v>1080.779633855521</v>
@@ -5303,25 +5303,25 @@
         <v>1516.632845269589</v>
       </c>
       <c r="S14" t="n">
-        <v>1449.600521206433</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="T14" t="n">
-        <v>1359.103610034883</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="U14" t="n">
-        <v>1359.103610034883</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="V14" t="n">
-        <v>1359.103610034883</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="W14" t="n">
-        <v>1359.103610034883</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="X14" t="n">
-        <v>1359.103610034883</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="Y14" t="n">
-        <v>1101.618061753758</v>
+        <v>1259.147296988464</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>134.6852823703575</v>
+        <v>774.2576417814796</v>
       </c>
       <c r="C15" t="n">
-        <v>92.88603678391731</v>
+        <v>599.8046125003526</v>
       </c>
       <c r="D15" t="n">
-        <v>76.60541081735282</v>
+        <v>450.8702028391014</v>
       </c>
       <c r="E15" t="n">
-        <v>50.0217395065841</v>
+        <v>291.6327478336459</v>
       </c>
       <c r="F15" t="n">
-        <v>36.14096522815584</v>
+        <v>145.0981898605308</v>
       </c>
       <c r="G15" t="n">
         <v>30.33265690539179</v>
@@ -5361,16 +5361,16 @@
         <v>30.33265690539179</v>
       </c>
       <c r="L15" t="n">
-        <v>221.5414609014944</v>
+        <v>317.4839399190793</v>
       </c>
       <c r="M15" t="n">
-        <v>596.9080901057177</v>
+        <v>692.8505691233026</v>
       </c>
       <c r="N15" t="n">
-        <v>972.274719309941</v>
+        <v>1068.217198327526</v>
       </c>
       <c r="O15" t="n">
-        <v>1283.694269048952</v>
+        <v>1379.636748066536</v>
       </c>
       <c r="P15" t="n">
         <v>1516.632845269589</v>
@@ -5385,22 +5385,22 @@
         <v>1480.860889453186</v>
       </c>
       <c r="T15" t="n">
-        <v>1412.411262693214</v>
+        <v>1412.411262693213</v>
       </c>
       <c r="U15" t="n">
-        <v>1184.205324258546</v>
+        <v>1316.859107953232</v>
       </c>
       <c r="V15" t="n">
-        <v>949.0532160268031</v>
+        <v>1214.360783416176</v>
       </c>
       <c r="W15" t="n">
-        <v>694.8158592986015</v>
+        <v>1092.777210382661</v>
       </c>
       <c r="X15" t="n">
-        <v>486.9643590930687</v>
+        <v>1017.579493871815</v>
       </c>
       <c r="Y15" t="n">
-        <v>279.2040603281147</v>
+        <v>942.4729788015477</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.1827153748807</v>
+        <v>197.1827153748813</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9003161416606</v>
+        <v>160.9003161416611</v>
       </c>
       <c r="D16" t="n">
-        <v>143.4374604240117</v>
+        <v>143.4374604240121</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1781505363053</v>
+        <v>128.1781505363057</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9419867330818</v>
+        <v>113.941986733082</v>
       </c>
       <c r="G16" t="n">
-        <v>77.1332095450958</v>
+        <v>77.13320954509598</v>
       </c>
       <c r="H16" t="n">
-        <v>47.92425806010314</v>
+        <v>47.92425806010323</v>
       </c>
       <c r="I16" t="n">
         <v>30.33265690539179</v>
       </c>
       <c r="J16" t="n">
-        <v>30.33265690539179</v>
+        <v>83.5325666033479</v>
       </c>
       <c r="K16" t="n">
-        <v>163.954364009088</v>
+        <v>217.154273707044</v>
       </c>
       <c r="L16" t="n">
-        <v>273.5173636019903</v>
+        <v>407.3113387517307</v>
       </c>
       <c r="M16" t="n">
-        <v>477.3329175521727</v>
+        <v>607.3468909513365</v>
       </c>
       <c r="N16" t="n">
-        <v>684.8282512933483</v>
+        <v>814.842224692512</v>
       </c>
       <c r="O16" t="n">
-        <v>870.3925061754405</v>
+        <v>1000.406479574604</v>
       </c>
       <c r="P16" t="n">
-        <v>1024.418659762039</v>
+        <v>1024.41865976204</v>
       </c>
       <c r="Q16" t="n">
-        <v>1087.622341912336</v>
+        <v>1087.622341912337</v>
       </c>
       <c r="R16" t="n">
-        <v>1051.322066754919</v>
+        <v>1051.322066754921</v>
       </c>
       <c r="S16" t="n">
-        <v>961.6227717180697</v>
+        <v>961.6227717180708</v>
       </c>
       <c r="T16" t="n">
-        <v>864.9911181552452</v>
+        <v>864.9911181552462</v>
       </c>
       <c r="U16" t="n">
-        <v>708.4460500160815</v>
+        <v>708.4460500160824</v>
       </c>
       <c r="V16" t="n">
-        <v>586.4153455048813</v>
+        <v>586.4153455048822</v>
       </c>
       <c r="W16" t="n">
-        <v>429.6519591626075</v>
+        <v>429.6519591626084</v>
       </c>
       <c r="X16" t="n">
-        <v>334.316191959277</v>
+        <v>334.3161919592777</v>
       </c>
       <c r="Y16" t="n">
-        <v>246.1773965104337</v>
+        <v>246.1773965104343</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>869.921298687203</v>
+        <v>869.9212986872025</v>
       </c>
       <c r="C17" t="n">
-        <v>741.1536556347987</v>
+        <v>741.153655634798</v>
       </c>
       <c r="D17" t="n">
-        <v>623.0828309160556</v>
+        <v>623.0828309160549</v>
       </c>
       <c r="E17" t="n">
-        <v>477.4894522058187</v>
+        <v>477.489452205818</v>
       </c>
       <c r="F17" t="n">
-        <v>306.6984213042185</v>
+        <v>306.6984213042177</v>
       </c>
       <c r="G17" t="n">
-        <v>127.8978416676135</v>
+        <v>127.8978416676136</v>
       </c>
       <c r="H17" t="n">
         <v>30.33265690539179</v>
@@ -5555,7 +5555,7 @@
         <v>1299.541607324194</v>
       </c>
       <c r="X17" t="n">
-        <v>1166.270722951122</v>
+        <v>1166.270722951121</v>
       </c>
       <c r="Y17" t="n">
         <v>1016.326264863317</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>623.5011715626645</v>
+        <v>215.2103058844223</v>
       </c>
       <c r="C18" t="n">
-        <v>623.5011715626645</v>
+        <v>40.75727660329525</v>
       </c>
       <c r="D18" t="n">
-        <v>474.5667619014131</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="E18" t="n">
-        <v>315.3293068959576</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F18" t="n">
-        <v>168.7947489228426</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G18" t="n">
         <v>30.33265690539179</v>
@@ -5592,22 +5592,22 @@
         <v>30.33265690539179</v>
       </c>
       <c r="J18" t="n">
-        <v>54.47769519076503</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K18" t="n">
-        <v>54.47769519076503</v>
+        <v>198.2212162150204</v>
       </c>
       <c r="L18" t="n">
-        <v>341.6289782044525</v>
+        <v>485.3724992287079</v>
       </c>
       <c r="M18" t="n">
-        <v>716.9956074086758</v>
+        <v>860.7391284329312</v>
       </c>
       <c r="N18" t="n">
-        <v>1092.362236612899</v>
+        <v>1205.213295530579</v>
       </c>
       <c r="O18" t="n">
-        <v>1403.78178635191</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="P18" t="n">
         <v>1516.632845269589</v>
@@ -5622,22 +5622,22 @@
         <v>1516.632845269589</v>
       </c>
       <c r="T18" t="n">
-        <v>1509.311911977345</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="U18" t="n">
-        <v>1281.105973542677</v>
+        <v>1288.426906834921</v>
       </c>
       <c r="V18" t="n">
-        <v>1045.953865310934</v>
+        <v>1053.274798603179</v>
       </c>
       <c r="W18" t="n">
-        <v>791.7165085827326</v>
+        <v>799.037441874977</v>
       </c>
       <c r="X18" t="n">
-        <v>791.7165085827326</v>
+        <v>591.1859416694442</v>
       </c>
       <c r="Y18" t="n">
-        <v>791.7165085827326</v>
+        <v>383.4256429044903</v>
       </c>
     </row>
     <row r="19">
@@ -5674,10 +5674,10 @@
         <v>30.33265690539179</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94039060992548</v>
+        <v>33.94039060992549</v>
       </c>
       <c r="L19" t="n">
-        <v>94.08348225544968</v>
+        <v>94.0834822554497</v>
       </c>
       <c r="M19" t="n">
         <v>167.8850628064696</v>
@@ -5701,13 +5701,13 @@
         <v>324.9288848188484</v>
       </c>
       <c r="T19" t="n">
-        <v>143.0485453180678</v>
+        <v>324.9288848188484</v>
       </c>
       <c r="U19" t="n">
-        <v>94.04456737222462</v>
+        <v>94.04456737222479</v>
       </c>
       <c r="V19" t="n">
-        <v>79.55495305434508</v>
+        <v>79.55495305434516</v>
       </c>
       <c r="W19" t="n">
         <v>30.33265690539179</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>869.9212986872027</v>
+        <v>869.9212986872026</v>
       </c>
       <c r="C20" t="n">
-        <v>741.1536556347983</v>
+        <v>741.1536556347982</v>
       </c>
       <c r="D20" t="n">
-        <v>623.0828309160551</v>
+        <v>623.0828309160549</v>
       </c>
       <c r="E20" t="n">
-        <v>477.4894522058181</v>
+        <v>477.489452205818</v>
       </c>
       <c r="F20" t="n">
-        <v>306.6984213042178</v>
+        <v>306.6984213042177</v>
       </c>
       <c r="G20" t="n">
         <v>127.8978416676136</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>443.4162443190904</v>
+        <v>492.1821878652208</v>
       </c>
       <c r="C21" t="n">
-        <v>268.9632150379633</v>
+        <v>317.7291585840939</v>
       </c>
       <c r="D21" t="n">
-        <v>120.0288053767121</v>
+        <v>168.7947489228426</v>
       </c>
       <c r="E21" t="n">
-        <v>30.33265690539179</v>
+        <v>168.7947489228426</v>
       </c>
       <c r="F21" t="n">
-        <v>30.33265690539179</v>
+        <v>168.7947489228426</v>
       </c>
       <c r="G21" t="n">
         <v>30.33265690539179</v>
@@ -5865,16 +5865,16 @@
         <v>1516.632845269589</v>
       </c>
       <c r="V21" t="n">
-        <v>1281.480737037847</v>
+        <v>1330.246680583977</v>
       </c>
       <c r="W21" t="n">
-        <v>1027.243380309645</v>
+        <v>1076.009323855776</v>
       </c>
       <c r="X21" t="n">
-        <v>819.3918801041123</v>
+        <v>868.1578236502428</v>
       </c>
       <c r="Y21" t="n">
-        <v>611.6315813391584</v>
+        <v>660.3975248852889</v>
       </c>
     </row>
     <row r="22">
@@ -5911,10 +5911,10 @@
         <v>30.33265690539179</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94039060992548</v>
+        <v>33.94039060992549</v>
       </c>
       <c r="L22" t="n">
-        <v>94.08348225544968</v>
+        <v>94.0834822554497</v>
       </c>
       <c r="M22" t="n">
         <v>167.8850628064696</v>
@@ -5944,13 +5944,13 @@
         <v>275.9249068730051</v>
       </c>
       <c r="V22" t="n">
-        <v>261.4352925551254</v>
+        <v>79.55495305434516</v>
       </c>
       <c r="W22" t="n">
-        <v>212.2129964061721</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="X22" t="n">
-        <v>212.2129964061721</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="Y22" t="n">
         <v>30.33265690539179</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>869.9212986872025</v>
+        <v>869.9212986872026</v>
       </c>
       <c r="C23" t="n">
-        <v>741.153655634798</v>
+        <v>741.1536556347982</v>
       </c>
       <c r="D23" t="n">
-        <v>623.0828309160548</v>
+        <v>623.0828309160549</v>
       </c>
       <c r="E23" t="n">
-        <v>477.4894522058179</v>
+        <v>477.489452205818</v>
       </c>
       <c r="F23" t="n">
-        <v>306.6984213042176</v>
+        <v>306.6984213042177</v>
       </c>
       <c r="G23" t="n">
         <v>127.8978416676136</v>
       </c>
       <c r="H23" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I23" t="n">
-        <v>30.33265690539168</v>
+        <v>30.3326569053919</v>
       </c>
       <c r="J23" t="n">
-        <v>60.28333378761795</v>
+        <v>60.28333378761818</v>
       </c>
       <c r="K23" t="n">
-        <v>225.916438769712</v>
+        <v>225.9164387697123</v>
       </c>
       <c r="L23" t="n">
-        <v>483.6755793232409</v>
+        <v>483.6755793232412</v>
       </c>
       <c r="M23" t="n">
-        <v>787.0888335313482</v>
+        <v>787.0888335313484</v>
       </c>
       <c r="N23" t="n">
         <v>1080.779633855521</v>
@@ -6029,7 +6029,7 @@
         <v>1299.541607324194</v>
       </c>
       <c r="X23" t="n">
-        <v>1166.270722951121</v>
+        <v>1166.270722951122</v>
       </c>
       <c r="Y23" t="n">
         <v>1016.326264863317</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>702.5912392318264</v>
+        <v>879.0013861731301</v>
       </c>
       <c r="C24" t="n">
-        <v>528.1382099506994</v>
+        <v>704.5483568920031</v>
       </c>
       <c r="D24" t="n">
-        <v>379.2038002894482</v>
+        <v>555.6139472307518</v>
       </c>
       <c r="E24" t="n">
-        <v>219.9663452839927</v>
+        <v>396.3764922252963</v>
       </c>
       <c r="F24" t="n">
-        <v>73.43178731087764</v>
+        <v>249.8419342521813</v>
       </c>
       <c r="G24" t="n">
-        <v>30.33265690539178</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="H24" t="n">
-        <v>30.33265690539178</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="I24" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J24" t="n">
-        <v>30.33265690539178</v>
+        <v>54.47769519076503</v>
       </c>
       <c r="K24" t="n">
-        <v>30.33265690539178</v>
+        <v>54.47769519076503</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5414609014942</v>
+        <v>341.6289782044525</v>
       </c>
       <c r="M24" t="n">
-        <v>596.9080901057175</v>
+        <v>716.9956074086758</v>
       </c>
       <c r="N24" t="n">
-        <v>972.2747193099408</v>
+        <v>972.274719309941</v>
       </c>
       <c r="O24" t="n">
-        <v>1283.694269048951</v>
+        <v>1283.694269048952</v>
       </c>
       <c r="P24" t="n">
         <v>1516.632845269589</v>
@@ -6093,25 +6093,25 @@
         <v>1516.632845269589</v>
       </c>
       <c r="S24" t="n">
-        <v>1348.207105758499</v>
+        <v>1476.871005003879</v>
       </c>
       <c r="T24" t="n">
-        <v>1348.207105758499</v>
+        <v>1476.871005003879</v>
       </c>
       <c r="U24" t="n">
-        <v>1120.001167323831</v>
+        <v>1476.871005003879</v>
       </c>
       <c r="V24" t="n">
-        <v>884.8490590920887</v>
+        <v>1476.871005003879</v>
       </c>
       <c r="W24" t="n">
-        <v>870.8065762518944</v>
+        <v>1462.828522163685</v>
       </c>
       <c r="X24" t="n">
-        <v>870.8065762518944</v>
+        <v>1254.977021958152</v>
       </c>
       <c r="Y24" t="n">
-        <v>870.8065762518944</v>
+        <v>1047.216723193198</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="C25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="D25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="E25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F25" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G25" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H25" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I25" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J25" t="n">
-        <v>30.33265690539178</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94039060992548</v>
+        <v>33.94039060992549</v>
       </c>
       <c r="L25" t="n">
-        <v>94.08348225544968</v>
+        <v>94.0834822554497</v>
       </c>
       <c r="M25" t="n">
         <v>167.8850628064696</v>
@@ -6166,31 +6166,31 @@
         <v>324.9288848188484</v>
       </c>
       <c r="Q25" t="n">
-        <v>256.7620740353919</v>
+        <v>324.9288848188484</v>
       </c>
       <c r="R25" t="n">
-        <v>256.7620740353919</v>
+        <v>324.9288848188484</v>
       </c>
       <c r="S25" t="n">
-        <v>256.7620740353919</v>
+        <v>324.9288848188484</v>
       </c>
       <c r="T25" t="n">
-        <v>256.7620740353919</v>
+        <v>324.9288848188484</v>
       </c>
       <c r="U25" t="n">
-        <v>207.7580960895487</v>
+        <v>275.9249068730051</v>
       </c>
       <c r="V25" t="n">
-        <v>193.268481771669</v>
+        <v>261.4352925551254</v>
       </c>
       <c r="W25" t="n">
-        <v>144.0461856227157</v>
+        <v>212.2129964061721</v>
       </c>
       <c r="X25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.33265690539179</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1466.7020706415</v>
+        <v>1466.702070641501</v>
       </c>
       <c r="C26" t="n">
-        <v>1249.533226033381</v>
+        <v>1249.533226033382</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.061199758922</v>
+        <v>1043.061199758924</v>
       </c>
       <c r="E26" t="n">
-        <v>809.0666194929702</v>
+        <v>809.0666194929713</v>
       </c>
       <c r="F26" t="n">
-        <v>549.8743870356548</v>
+        <v>549.8743870356559</v>
       </c>
       <c r="G26" t="n">
-        <v>282.6726058433356</v>
+        <v>282.6726058433367</v>
       </c>
       <c r="H26" t="n">
-        <v>96.70621952539864</v>
+        <v>96.70621952539977</v>
       </c>
       <c r="I26" t="n">
         <v>55.26140569035348</v>
@@ -6227,10 +6227,10 @@
         <v>233.9850608254592</v>
       </c>
       <c r="K26" t="n">
-        <v>548.3911440604327</v>
+        <v>548.3911440604329</v>
       </c>
       <c r="L26" t="n">
-        <v>954.9232628668412</v>
+        <v>954.9232628668415</v>
       </c>
       <c r="M26" t="n">
         <v>1407.109495327828</v>
@@ -6257,7 +6257,7 @@
         <v>2643.820826558179</v>
       </c>
       <c r="U26" t="n">
-        <v>2541.770181894738</v>
+        <v>2541.770181894739</v>
       </c>
       <c r="V26" t="n">
         <v>2362.50096688346</v>
@@ -6266,10 +6266,10 @@
         <v>2161.525983945638</v>
       </c>
       <c r="X26" t="n">
-        <v>1939.85389801685</v>
+        <v>1939.853898016851</v>
       </c>
       <c r="Y26" t="n">
-        <v>1701.50823837333</v>
+        <v>1701.508238373331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>766.3433265671315</v>
+        <v>766.3433265671313</v>
       </c>
       <c r="C27" t="n">
-        <v>591.8902972860045</v>
+        <v>591.8902972860043</v>
       </c>
       <c r="D27" t="n">
-        <v>442.9558876247532</v>
+        <v>442.955887624753</v>
       </c>
       <c r="E27" t="n">
-        <v>283.7184326192977</v>
+        <v>283.7184326192975</v>
       </c>
       <c r="F27" t="n">
-        <v>137.1838746461827</v>
+        <v>137.1838746461825</v>
       </c>
       <c r="G27" t="n">
-        <v>55.26140569035348</v>
+        <v>137.1838746461825</v>
       </c>
       <c r="H27" t="n">
         <v>55.26140569035348</v>
@@ -6336,7 +6336,7 @@
         <v>1915.972193620006</v>
       </c>
       <c r="U27" t="n">
-        <v>1839.559927517631</v>
+        <v>1687.766255185338</v>
       </c>
       <c r="V27" t="n">
         <v>1604.407819285888</v>
@@ -6348,7 +6348,7 @@
         <v>1142.318962352153</v>
       </c>
       <c r="Y27" t="n">
-        <v>934.5586635871996</v>
+        <v>934.5586635871994</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.8887117759335</v>
+        <v>100.1418676837363</v>
       </c>
       <c r="C28" t="n">
-        <v>72.74620118031869</v>
+        <v>82.99935708812149</v>
       </c>
       <c r="D28" t="n">
-        <v>74.38986114516794</v>
+        <v>82.99935708812149</v>
       </c>
       <c r="E28" t="n">
-        <v>78.19321637794394</v>
+        <v>82.99935708812149</v>
       </c>
       <c r="F28" t="n">
         <v>82.99935708812149</v>
@@ -6379,55 +6379,55 @@
         <v>55.26140569035348</v>
       </c>
       <c r="I28" t="n">
-        <v>56.77888225233786</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="J28" t="n">
-        <v>128.737796804011</v>
+        <v>127.2203202420267</v>
       </c>
       <c r="K28" t="n">
-        <v>137.5722028562449</v>
+        <v>147.8253587640478</v>
       </c>
       <c r="L28" t="n">
-        <v>197.7152945017691</v>
+        <v>207.968450409572</v>
       </c>
       <c r="M28" t="n">
-        <v>271.5168750527891</v>
+        <v>281.770030960592</v>
       </c>
       <c r="N28" t="n">
-        <v>348.9982353948022</v>
+        <v>508.0243695554845</v>
       </c>
       <c r="O28" t="n">
-        <v>553.3214951306113</v>
+        <v>712.3476292912936</v>
       </c>
       <c r="P28" t="n">
-        <v>726.1066535709267</v>
+        <v>736.3598094787296</v>
       </c>
       <c r="Q28" t="n">
-        <v>808.0693405749406</v>
+        <v>818.3224964827434</v>
       </c>
       <c r="R28" t="n">
-        <v>790.9089540551297</v>
+        <v>801.1621099629325</v>
       </c>
       <c r="S28" t="n">
-        <v>720.3495476558853</v>
+        <v>730.6027035636881</v>
       </c>
       <c r="T28" t="n">
-        <v>642.8577827306661</v>
+        <v>653.110938638469</v>
       </c>
       <c r="U28" t="n">
-        <v>505.4526032291077</v>
+        <v>515.7057591369105</v>
       </c>
       <c r="V28" t="n">
-        <v>402.5617873555129</v>
+        <v>412.8149432633157</v>
       </c>
       <c r="W28" t="n">
-        <v>264.9382896508444</v>
+        <v>275.1914455586472</v>
       </c>
       <c r="X28" t="n">
-        <v>188.7424110851191</v>
+        <v>198.9955669929219</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.7435042738811</v>
+        <v>129.9966601816839</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1466.7020706415</v>
+        <v>1466.702070641501</v>
       </c>
       <c r="C29" t="n">
         <v>1249.533226033381</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.061199758922</v>
+        <v>1043.061199758923</v>
       </c>
       <c r="E29" t="n">
-        <v>809.0666194929702</v>
+        <v>809.0666194929706</v>
       </c>
       <c r="F29" t="n">
-        <v>549.8743870356548</v>
+        <v>549.8743870356552</v>
       </c>
       <c r="G29" t="n">
-        <v>282.6726058433355</v>
+        <v>282.672605843336</v>
       </c>
       <c r="H29" t="n">
-        <v>96.70621952539875</v>
+        <v>96.70621952539879</v>
       </c>
       <c r="I29" t="n">
         <v>55.26140569035348</v>
       </c>
       <c r="J29" t="n">
-        <v>233.9850608254594</v>
+        <v>233.9850608254592</v>
       </c>
       <c r="K29" t="n">
-        <v>548.3911440604331</v>
+        <v>548.3911440604329</v>
       </c>
       <c r="L29" t="n">
-        <v>954.9232628668415</v>
+        <v>954.9232628668412</v>
       </c>
       <c r="M29" t="n">
         <v>1407.109495327828</v>
@@ -6476,25 +6476,25 @@
         <v>1849.57327390488</v>
       </c>
       <c r="O29" t="n">
-        <v>2230.482508982623</v>
+        <v>2230.482508982624</v>
       </c>
       <c r="P29" t="n">
-        <v>2539.704028865875</v>
+        <v>2539.704028865876</v>
       </c>
       <c r="Q29" t="n">
-        <v>2731.745420077586</v>
+        <v>2731.745420077587</v>
       </c>
       <c r="R29" t="n">
         <v>2763.070284517674</v>
       </c>
       <c r="S29" t="n">
-        <v>2715.177849092122</v>
+        <v>2715.177849092123</v>
       </c>
       <c r="T29" t="n">
-        <v>2643.820826558178</v>
+        <v>2643.820826558179</v>
       </c>
       <c r="U29" t="n">
-        <v>2541.770181894738</v>
+        <v>2541.770181894739</v>
       </c>
       <c r="V29" t="n">
         <v>2362.50096688346</v>
@@ -6503,7 +6503,7 @@
         <v>2161.525983945638</v>
       </c>
       <c r="X29" t="n">
-        <v>1939.85389801685</v>
+        <v>1939.853898016851</v>
       </c>
       <c r="Y29" t="n">
         <v>1701.50823837333</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>822.8829496287532</v>
+        <v>532.6271852790102</v>
       </c>
       <c r="C30" t="n">
-        <v>648.4299203476262</v>
+        <v>358.1741559978832</v>
       </c>
       <c r="D30" t="n">
-        <v>499.4955106863749</v>
+        <v>209.2397463366319</v>
       </c>
       <c r="E30" t="n">
-        <v>340.2580556809194</v>
+        <v>201.7959636634685</v>
       </c>
       <c r="F30" t="n">
-        <v>193.7234977078043</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="G30" t="n">
         <v>55.26140569035348</v>
@@ -6540,16 +6540,16 @@
         <v>55.26140569035348</v>
       </c>
       <c r="J30" t="n">
-        <v>79.40644397572672</v>
+        <v>79.40644397572673</v>
       </c>
       <c r="K30" t="n">
         <v>247.2950032853553</v>
       </c>
       <c r="L30" t="n">
-        <v>534.4462862990428</v>
+        <v>534.4462862990429</v>
       </c>
       <c r="M30" t="n">
-        <v>921.5175111653003</v>
+        <v>921.5175111653004</v>
       </c>
       <c r="N30" t="n">
         <v>1334.540372974849</v>
@@ -6567,25 +6567,25 @@
         <v>1981.913998921171</v>
       </c>
       <c r="S30" t="n">
-        <v>1870.027882471703</v>
+        <v>1965.281931742373</v>
       </c>
       <c r="T30" t="n">
-        <v>1820.718144349336</v>
+        <v>1834.049724664177</v>
       </c>
       <c r="U30" t="n">
-        <v>1744.30587824696</v>
+        <v>1605.843786229509</v>
       </c>
       <c r="V30" t="n">
-        <v>1509.153770015217</v>
+        <v>1370.691677997766</v>
       </c>
       <c r="W30" t="n">
-        <v>1406.710085619308</v>
+        <v>1116.454321269565</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.858585413775</v>
+        <v>908.602821064032</v>
       </c>
       <c r="Y30" t="n">
-        <v>991.0982866488212</v>
+        <v>700.8425222990782</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.88871177593332</v>
+        <v>96.33851245096029</v>
       </c>
       <c r="C31" t="n">
-        <v>72.74620118031854</v>
+        <v>79.19600185534549</v>
       </c>
       <c r="D31" t="n">
-        <v>74.38986114516781</v>
+        <v>79.19600185534549</v>
       </c>
       <c r="E31" t="n">
-        <v>78.19321637794384</v>
+        <v>82.99935708812149</v>
       </c>
       <c r="F31" t="n">
-        <v>82.99935708812141</v>
+        <v>82.99935708812149</v>
       </c>
       <c r="G31" t="n">
-        <v>65.33046853774078</v>
+        <v>65.33046853774083</v>
       </c>
       <c r="H31" t="n">
         <v>55.26140569035348</v>
@@ -6622,49 +6622,49 @@
         <v>127.2203202420267</v>
       </c>
       <c r="K31" t="n">
-        <v>279.6010321994398</v>
+        <v>225.9846905352855</v>
       </c>
       <c r="L31" t="n">
-        <v>339.744123844964</v>
+        <v>286.1277821808097</v>
       </c>
       <c r="M31" t="n">
-        <v>413.545704395984</v>
+        <v>359.9293627318297</v>
       </c>
       <c r="N31" t="n">
-        <v>491.0270647379971</v>
+        <v>586.1837013267223</v>
       </c>
       <c r="O31" t="n">
-        <v>695.3503244738063</v>
+        <v>641.7339828096519</v>
       </c>
       <c r="P31" t="n">
-        <v>808.0693405749403</v>
+        <v>814.5191412499673</v>
       </c>
       <c r="Q31" t="n">
-        <v>808.0693405749403</v>
+        <v>814.5191412499673</v>
       </c>
       <c r="R31" t="n">
-        <v>790.9089540551294</v>
+        <v>797.3587547301564</v>
       </c>
       <c r="S31" t="n">
-        <v>720.349547655885</v>
+        <v>726.799348330912</v>
       </c>
       <c r="T31" t="n">
-        <v>642.8577827306658</v>
+        <v>649.3075834056929</v>
       </c>
       <c r="U31" t="n">
-        <v>505.4526032291074</v>
+        <v>511.9024039041344</v>
       </c>
       <c r="V31" t="n">
-        <v>402.5617873555126</v>
+        <v>409.0115880305397</v>
       </c>
       <c r="W31" t="n">
-        <v>264.9382896508441</v>
+        <v>271.3880903258711</v>
       </c>
       <c r="X31" t="n">
-        <v>188.7424110851189</v>
+        <v>195.1922117601459</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.7435042738809</v>
+        <v>126.1933049489079</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1437.484043812603</v>
+        <v>1437.484043812602</v>
       </c>
       <c r="C32" t="n">
-        <v>1224.314314608439</v>
+        <v>1224.314314608438</v>
       </c>
       <c r="D32" t="n">
         <v>1021.841403737935</v>
       </c>
       <c r="E32" t="n">
-        <v>791.8459388759386</v>
+        <v>791.8459388759388</v>
       </c>
       <c r="F32" t="n">
-        <v>536.6528218225785</v>
+        <v>536.6528218225786</v>
       </c>
       <c r="G32" t="n">
         <v>273.4501560342146</v>
       </c>
       <c r="H32" t="n">
-        <v>91.48288512023265</v>
+        <v>91.48288512023271</v>
       </c>
       <c r="I32" t="n">
-        <v>54.03718668914267</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="J32" t="n">
         <v>236.680374831665</v>
@@ -6704,16 +6704,16 @@
         <v>555.0059910740551</v>
       </c>
       <c r="L32" t="n">
-        <v>870.1951147618008</v>
+        <v>965.4576428878801</v>
       </c>
       <c r="M32" t="n">
-        <v>1326.300880230204</v>
+        <v>1421.563408356283</v>
       </c>
       <c r="N32" t="n">
-        <v>1772.684191814673</v>
+        <v>1867.946719940752</v>
       </c>
       <c r="O32" t="n">
-        <v>2157.512959899833</v>
+        <v>2252.775488025912</v>
       </c>
       <c r="P32" t="n">
         <v>2470.654012790502</v>
@@ -6728,13 +6728,13 @@
         <v>2657.966014435537</v>
       </c>
       <c r="T32" t="n">
-        <v>2590.608107305549</v>
+        <v>2590.608107305548</v>
       </c>
       <c r="U32" t="n">
         <v>2492.556578046064</v>
       </c>
       <c r="V32" t="n">
-        <v>2317.286478438741</v>
+        <v>2317.28647843874</v>
       </c>
       <c r="W32" t="n">
         <v>2120.310610904874</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>777.1164537777863</v>
+        <v>777.1164537777861</v>
       </c>
       <c r="C33" t="n">
-        <v>602.6634244966593</v>
+        <v>602.6634244966591</v>
       </c>
       <c r="D33" t="n">
-        <v>498.271291685164</v>
+        <v>453.7290148354078</v>
       </c>
       <c r="E33" t="n">
-        <v>339.0338366797085</v>
+        <v>294.4915598299523</v>
       </c>
       <c r="F33" t="n">
-        <v>192.4992787065935</v>
+        <v>147.9570018568373</v>
       </c>
       <c r="G33" t="n">
-        <v>54.03718668914267</v>
+        <v>147.9570018568373</v>
       </c>
       <c r="H33" t="n">
-        <v>54.03718668914267</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="I33" t="n">
-        <v>54.03718668914267</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="J33" t="n">
-        <v>78.18222497451592</v>
+        <v>78.18222497451593</v>
       </c>
       <c r="K33" t="n">
         <v>246.0707842841445</v>
@@ -6804,16 +6804,16 @@
         <v>1980.68977991996</v>
       </c>
       <c r="S33" t="n">
-        <v>1812.26404040887</v>
+        <v>1968.056828145118</v>
       </c>
       <c r="T33" t="n">
-        <v>1766.953417690459</v>
+        <v>1922.746205426706</v>
       </c>
       <c r="U33" t="n">
-        <v>1694.540266992038</v>
+        <v>1850.333054728285</v>
       </c>
       <c r="V33" t="n">
-        <v>1615.180946496543</v>
+        <v>1615.180946496542</v>
       </c>
       <c r="W33" t="n">
         <v>1360.943589768341</v>
@@ -6822,7 +6822,7 @@
         <v>1153.092089562808</v>
       </c>
       <c r="Y33" t="n">
-        <v>945.3317907978544</v>
+        <v>945.3317907978542</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.92030247065954</v>
+        <v>70.47174051287294</v>
       </c>
       <c r="C34" t="n">
-        <v>73.77690727900004</v>
+        <v>57.32834532121342</v>
       </c>
       <c r="D34" t="n">
-        <v>73.77690727900004</v>
+        <v>57.32834532121342</v>
       </c>
       <c r="E34" t="n">
-        <v>73.77690727900004</v>
+        <v>65.05123356140599</v>
       </c>
       <c r="F34" t="n">
-        <v>73.77690727900004</v>
+        <v>73.77690727900011</v>
       </c>
       <c r="G34" t="n">
-        <v>60.1071341325747</v>
+        <v>60.10713413257474</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03718668914267</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="I34" t="n">
-        <v>54.03718668914267</v>
+        <v>59.47419625854363</v>
       </c>
       <c r="J34" t="n">
-        <v>54.03718668914267</v>
+        <v>135.3526438176334</v>
       </c>
       <c r="K34" t="n">
-        <v>86.85315589312316</v>
+        <v>291.6528887824632</v>
       </c>
       <c r="L34" t="n">
-        <v>299.6887587989435</v>
+        <v>435.9327081014532</v>
       </c>
       <c r="M34" t="n">
-        <v>526.1828506102595</v>
+        <v>509.7342886524732</v>
       </c>
       <c r="N34" t="n">
-        <v>603.6642109522726</v>
+        <v>587.2156489944863</v>
       </c>
       <c r="O34" t="n">
-        <v>659.2144924352023</v>
+        <v>642.765930477416</v>
       </c>
       <c r="P34" t="n">
-        <v>683.2266726226383</v>
+        <v>666.778110664852</v>
       </c>
       <c r="Q34" t="n">
-        <v>769.1088926340688</v>
+        <v>752.6603306762823</v>
       </c>
       <c r="R34" t="n">
-        <v>755.9476215182132</v>
+        <v>739.4990595604268</v>
       </c>
       <c r="S34" t="n">
-        <v>689.3873305229241</v>
+        <v>672.9387685651377</v>
       </c>
       <c r="T34" t="n">
-        <v>615.8946810016603</v>
+        <v>599.4461190438739</v>
       </c>
       <c r="U34" t="n">
-        <v>482.4886169040572</v>
+        <v>466.0400549462707</v>
       </c>
       <c r="V34" t="n">
-        <v>383.5969164344177</v>
+        <v>367.1483544766312</v>
       </c>
       <c r="W34" t="n">
-        <v>249.9725341337044</v>
+        <v>233.5239721759179</v>
       </c>
       <c r="X34" t="n">
-        <v>177.7757709719345</v>
+        <v>161.327209014148</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.7759795646518</v>
+        <v>96.32741760686525</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1090.014198100788</v>
+        <v>1090.014198100787</v>
       </c>
       <c r="C35" t="n">
-        <v>926.0622024415841</v>
+        <v>926.0622024415834</v>
       </c>
       <c r="D35" t="n">
-        <v>772.8070251160416</v>
+        <v>772.8070251160409</v>
       </c>
       <c r="E35" t="n">
-        <v>592.0292937990052</v>
+        <v>592.0292937990047</v>
       </c>
       <c r="F35" t="n">
-        <v>386.0539102906056</v>
+        <v>386.0539102906051</v>
       </c>
       <c r="G35" t="n">
-        <v>172.0689780472011</v>
+        <v>172.068978047201</v>
       </c>
       <c r="H35" t="n">
-        <v>39.31944067817997</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85721229328448</v>
+        <v>50.8572122932845</v>
       </c>
       <c r="J35" t="n">
-        <v>80.80788917551075</v>
+        <v>80.80788917551078</v>
       </c>
       <c r="K35" t="n">
-        <v>447.3718060653167</v>
+        <v>246.4409941576049</v>
       </c>
       <c r="L35" t="n">
-        <v>705.1309466188457</v>
+        <v>504.2001347111337</v>
       </c>
       <c r="M35" t="n">
-        <v>1008.544200826953</v>
+        <v>807.6133889192411</v>
       </c>
       <c r="N35" t="n">
-        <v>1302.235001151126</v>
+        <v>1101.304189243414</v>
       </c>
       <c r="O35" t="n">
-        <v>1534.371257975989</v>
+        <v>1333.440446068277</v>
       </c>
       <c r="P35" t="n">
         <v>1694.819799606362</v>
       </c>
       <c r="Q35" t="n">
-        <v>1877.270878119829</v>
+        <v>1939.019024472906</v>
       </c>
       <c r="R35" t="n">
-        <v>1960.753576214749</v>
+        <v>1960.753576214748</v>
       </c>
       <c r="S35" t="n">
         <v>1965.972033908998</v>
@@ -6968,7 +6968,7 @@
         <v>1947.83186032397</v>
       </c>
       <c r="U35" t="n">
-        <v>1898.998064609446</v>
+        <v>1898.998064609445</v>
       </c>
       <c r="V35" t="n">
         <v>1772.945698547083</v>
@@ -6980,7 +6980,7 @@
         <v>1456.732327578305</v>
       </c>
       <c r="Y35" t="n">
-        <v>1271.603516883702</v>
+        <v>1271.603516883701</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>998.7619066495062</v>
+        <v>362.7068796205582</v>
       </c>
       <c r="C36" t="n">
-        <v>824.3088773683792</v>
+        <v>188.2538503394312</v>
       </c>
       <c r="D36" t="n">
-        <v>675.3744677071279</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="E36" t="n">
-        <v>516.1370127016723</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="F36" t="n">
-        <v>369.6024547285573</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="G36" t="n">
-        <v>231.1403627111065</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="H36" t="n">
-        <v>120.3666260075186</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="I36" t="n">
-        <v>39.31944067817997</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="J36" t="n">
-        <v>63.4644789635532</v>
+        <v>63.46447896355318</v>
       </c>
       <c r="K36" t="n">
         <v>231.3530382731818</v>
@@ -7038,28 +7038,28 @@
         <v>1965.972033908998</v>
       </c>
       <c r="R36" t="n">
-        <v>1965.972033908998</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="S36" t="n">
-        <v>1965.972033908998</v>
+        <v>1865.232829460384</v>
       </c>
       <c r="T36" t="n">
-        <v>1764.868623454339</v>
+        <v>1664.129419005725</v>
       </c>
       <c r="U36" t="n">
-        <v>1536.662685019671</v>
+        <v>1435.923480571057</v>
       </c>
       <c r="V36" t="n">
-        <v>1301.510576787928</v>
+        <v>1200.771372339314</v>
       </c>
       <c r="W36" t="n">
-        <v>1047.273220059727</v>
+        <v>946.5340156111129</v>
       </c>
       <c r="X36" t="n">
-        <v>1044.432241135402</v>
+        <v>738.68251540558</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.7619066495062</v>
+        <v>530.9222166406262</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.37071990356094</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="C37" t="n">
-        <v>43.37071990356094</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="D37" t="n">
-        <v>43.37071990356094</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="E37" t="n">
-        <v>43.37071990356094</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="F37" t="n">
-        <v>43.37071990356094</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="G37" t="n">
-        <v>43.37071990356094</v>
+        <v>39.31944067817996</v>
       </c>
       <c r="H37" t="n">
-        <v>43.37071990356094</v>
+        <v>43.37071990356081</v>
       </c>
       <c r="I37" t="n">
-        <v>43.37071990356094</v>
+        <v>43.37071990356081</v>
       </c>
       <c r="J37" t="n">
-        <v>43.37071990356094</v>
+        <v>43.37071990356081</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97845360809463</v>
+        <v>46.97845360809451</v>
       </c>
       <c r="L37" t="n">
-        <v>107.1215452536188</v>
+        <v>107.1215452536187</v>
       </c>
       <c r="M37" t="n">
-        <v>180.9231258046388</v>
+        <v>180.9231258046387</v>
       </c>
       <c r="N37" t="n">
-        <v>258.4044861466519</v>
+        <v>258.4044861466518</v>
       </c>
       <c r="O37" t="n">
-        <v>313.9547676295816</v>
+        <v>313.9547676295815</v>
       </c>
       <c r="P37" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170174</v>
       </c>
       <c r="Q37" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170174</v>
       </c>
       <c r="R37" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170174</v>
       </c>
       <c r="S37" t="n">
-        <v>320.624390366689</v>
+        <v>320.6243903666889</v>
       </c>
       <c r="T37" t="n">
-        <v>296.3494743903857</v>
+        <v>296.3494743903856</v>
       </c>
       <c r="U37" t="n">
-        <v>212.1611438377431</v>
+        <v>212.161143837743</v>
       </c>
       <c r="V37" t="n">
-        <v>162.4871769130642</v>
+        <v>162.4871769130641</v>
       </c>
       <c r="W37" t="n">
-        <v>78.08052815731151</v>
+        <v>78.08052815731145</v>
       </c>
       <c r="X37" t="n">
-        <v>55.10149854050212</v>
+        <v>55.10149854050209</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.31944067817997</v>
+        <v>39.31944067817996</v>
       </c>
     </row>
     <row r="38">
@@ -7151,67 +7151,67 @@
         <v>1090.014198100786</v>
       </c>
       <c r="C38" t="n">
-        <v>926.0622024415827</v>
+        <v>926.0622024415821</v>
       </c>
       <c r="D38" t="n">
-        <v>772.8070251160402</v>
+        <v>772.8070251160397</v>
       </c>
       <c r="E38" t="n">
-        <v>592.0292937990039</v>
+        <v>592.0292937990034</v>
       </c>
       <c r="F38" t="n">
-        <v>386.0539102906043</v>
+        <v>386.0539102906039</v>
       </c>
       <c r="G38" t="n">
-        <v>172.0689780472011</v>
+        <v>172.068978047201</v>
       </c>
       <c r="H38" t="n">
         <v>39.31944067817994</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85721229328446</v>
+        <v>50.85721229328448</v>
       </c>
       <c r="J38" t="n">
-        <v>80.80788917551072</v>
+        <v>80.80788917551075</v>
       </c>
       <c r="K38" t="n">
         <v>246.4409941576048</v>
       </c>
       <c r="L38" t="n">
-        <v>705.1309466188455</v>
+        <v>504.2001347111337</v>
       </c>
       <c r="M38" t="n">
-        <v>1008.544200826953</v>
+        <v>946.7960544738746</v>
       </c>
       <c r="N38" t="n">
-        <v>1302.235001151126</v>
+        <v>1240.486854798047</v>
       </c>
       <c r="O38" t="n">
-        <v>1534.371257975989</v>
+        <v>1472.623111622911</v>
       </c>
       <c r="P38" t="n">
-        <v>1694.819799606362</v>
+        <v>1633.071653253284</v>
       </c>
       <c r="Q38" t="n">
         <v>1877.270878119828</v>
       </c>
       <c r="R38" t="n">
-        <v>1960.753576214748</v>
+        <v>1960.753576214747</v>
       </c>
       <c r="S38" t="n">
         <v>1965.972033908997</v>
       </c>
       <c r="T38" t="n">
-        <v>1947.831860323969</v>
+        <v>1947.831860323968</v>
       </c>
       <c r="U38" t="n">
-        <v>1898.998064609445</v>
+        <v>1898.998064609444</v>
       </c>
       <c r="V38" t="n">
         <v>1772.945698547082</v>
       </c>
       <c r="W38" t="n">
-        <v>1625.187564558176</v>
+        <v>1625.187564558175</v>
       </c>
       <c r="X38" t="n">
         <v>1456.732327578304</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>602.9915199553524</v>
+        <v>692.9898936709355</v>
       </c>
       <c r="C39" t="n">
-        <v>428.5384906742254</v>
+        <v>518.5368643898086</v>
       </c>
       <c r="D39" t="n">
-        <v>279.6040810129741</v>
+        <v>369.6024547285573</v>
       </c>
       <c r="E39" t="n">
-        <v>120.3666260075186</v>
+        <v>369.6024547285573</v>
       </c>
       <c r="F39" t="n">
-        <v>120.3666260075186</v>
+        <v>369.6024547285573</v>
       </c>
       <c r="G39" t="n">
-        <v>120.3666260075186</v>
+        <v>231.1403627111064</v>
       </c>
       <c r="H39" t="n">
         <v>120.3666260075186</v>
@@ -7251,19 +7251,19 @@
         <v>39.31944067817994</v>
       </c>
       <c r="J39" t="n">
-        <v>63.46447896355278</v>
+        <v>63.46447896355232</v>
       </c>
       <c r="K39" t="n">
-        <v>231.3530382731814</v>
+        <v>231.3530382731809</v>
       </c>
       <c r="L39" t="n">
-        <v>518.5043212868688</v>
+        <v>518.5043212868684</v>
       </c>
       <c r="M39" t="n">
-        <v>905.5755461531264</v>
+        <v>905.575546153126</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.598407962675</v>
+        <v>1318.598407962674</v>
       </c>
       <c r="O39" t="n">
         <v>1630.017957701685</v>
@@ -7281,22 +7281,22 @@
         <v>1965.972033908997</v>
       </c>
       <c r="T39" t="n">
-        <v>1904.414059340519</v>
+        <v>1965.972033908997</v>
       </c>
       <c r="U39" t="n">
-        <v>1676.208120905851</v>
+        <v>1766.206494621435</v>
       </c>
       <c r="V39" t="n">
-        <v>1441.056012674109</v>
+        <v>1531.054386389692</v>
       </c>
       <c r="W39" t="n">
-        <v>1186.818655945907</v>
+        <v>1276.81702966149</v>
       </c>
       <c r="X39" t="n">
-        <v>978.9671557403742</v>
+        <v>1068.965529455957</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.2068569754204</v>
+        <v>861.2052306910036</v>
       </c>
     </row>
     <row r="40">
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.31944067817994</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="C40" t="n">
-        <v>39.31944067817994</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="D40" t="n">
-        <v>39.31944067817994</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="E40" t="n">
-        <v>39.31944067817994</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="F40" t="n">
-        <v>39.31944067817994</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="G40" t="n">
-        <v>43.37071990356094</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="H40" t="n">
-        <v>43.37071990356094</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="I40" t="n">
-        <v>43.37071990356094</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="J40" t="n">
-        <v>43.37071990356094</v>
+        <v>43.3707199035607</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97845360809463</v>
+        <v>46.9784536080944</v>
       </c>
       <c r="L40" t="n">
-        <v>107.1215452536188</v>
+        <v>107.1215452536186</v>
       </c>
       <c r="M40" t="n">
-        <v>180.9231258046388</v>
+        <v>180.9231258046386</v>
       </c>
       <c r="N40" t="n">
-        <v>258.4044861466519</v>
+        <v>258.4044861466517</v>
       </c>
       <c r="O40" t="n">
-        <v>313.9547676295816</v>
+        <v>313.9547676295813</v>
       </c>
       <c r="P40" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170173</v>
       </c>
       <c r="Q40" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170173</v>
       </c>
       <c r="R40" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170173</v>
       </c>
       <c r="S40" t="n">
-        <v>320.624390366689</v>
+        <v>320.6243903666888</v>
       </c>
       <c r="T40" t="n">
-        <v>296.3494743903857</v>
+        <v>296.3494743903855</v>
       </c>
       <c r="U40" t="n">
-        <v>212.1611438377431</v>
+        <v>212.1611438377429</v>
       </c>
       <c r="V40" t="n">
-        <v>162.4871769130642</v>
+        <v>162.487176913064</v>
       </c>
       <c r="W40" t="n">
-        <v>78.08052815731149</v>
+        <v>78.08052815731142</v>
       </c>
       <c r="X40" t="n">
-        <v>55.1014985405021</v>
+        <v>55.10149854050206</v>
       </c>
       <c r="Y40" t="n">
         <v>39.31944067817994</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1090.014198100787</v>
+        <v>1090.014198100786</v>
       </c>
       <c r="C41" t="n">
-        <v>926.0622024415834</v>
+        <v>926.0622024415825</v>
       </c>
       <c r="D41" t="n">
-        <v>772.8070251160408</v>
+        <v>772.80702511604</v>
       </c>
       <c r="E41" t="n">
-        <v>592.0292937990044</v>
+        <v>592.029293799004</v>
       </c>
       <c r="F41" t="n">
-        <v>386.0539102906048</v>
+        <v>386.0539102906043</v>
       </c>
       <c r="G41" t="n">
         <v>172.0689780472011</v>
       </c>
       <c r="H41" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85721229328445</v>
+        <v>50.85721229328443</v>
       </c>
       <c r="J41" t="n">
-        <v>281.7387010832226</v>
+        <v>80.8078891755107</v>
       </c>
       <c r="K41" t="n">
-        <v>447.3718060653167</v>
+        <v>246.4409941576048</v>
       </c>
       <c r="L41" t="n">
-        <v>705.1309466188457</v>
+        <v>504.2001347111337</v>
       </c>
       <c r="M41" t="n">
-        <v>1008.544200826953</v>
+        <v>807.6133889192409</v>
       </c>
       <c r="N41" t="n">
-        <v>1302.235001151126</v>
+        <v>1101.304189243413</v>
       </c>
       <c r="O41" t="n">
-        <v>1534.371257975989</v>
+        <v>1477.841569317162</v>
       </c>
       <c r="P41" t="n">
-        <v>1694.819799606362</v>
+        <v>1839.220922855247</v>
       </c>
       <c r="Q41" t="n">
-        <v>1877.270878119829</v>
+        <v>1882.489335814078</v>
       </c>
       <c r="R41" t="n">
-        <v>1960.753576214748</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="S41" t="n">
         <v>1965.972033908998</v>
@@ -7442,19 +7442,19 @@
         <v>1947.83186032397</v>
       </c>
       <c r="U41" t="n">
-        <v>1898.998064609446</v>
+        <v>1898.998064609445</v>
       </c>
       <c r="V41" t="n">
-        <v>1772.945698547083</v>
+        <v>1772.945698547082</v>
       </c>
       <c r="W41" t="n">
-        <v>1625.187564558177</v>
+        <v>1625.187564558176</v>
       </c>
       <c r="X41" t="n">
-        <v>1456.732327578305</v>
+        <v>1456.732327578304</v>
       </c>
       <c r="Y41" t="n">
-        <v>1271.603516883701</v>
+        <v>1271.6035168837</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>664.5494945238311</v>
+        <v>832.7648315438992</v>
       </c>
       <c r="C42" t="n">
-        <v>490.0964652427041</v>
+        <v>658.3118022627722</v>
       </c>
       <c r="D42" t="n">
-        <v>341.1620555814528</v>
+        <v>509.3773926015209</v>
       </c>
       <c r="E42" t="n">
-        <v>181.9246005759973</v>
+        <v>350.1399375960654</v>
       </c>
       <c r="F42" t="n">
-        <v>181.9246005759973</v>
+        <v>203.6053796229504</v>
       </c>
       <c r="G42" t="n">
-        <v>120.3666260075186</v>
+        <v>203.6053796229504</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3666260075186</v>
+        <v>92.83164291936254</v>
       </c>
       <c r="I42" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J42" t="n">
-        <v>63.4644789635532</v>
+        <v>63.46447896355322</v>
       </c>
       <c r="K42" t="n">
-        <v>231.3530382731821</v>
+        <v>231.3530382731818</v>
       </c>
       <c r="L42" t="n">
-        <v>518.5043212868695</v>
+        <v>518.5043212868693</v>
       </c>
       <c r="M42" t="n">
-        <v>905.5755461531271</v>
+        <v>905.5755461531269</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.598407962676</v>
+        <v>1318.598407962675</v>
       </c>
       <c r="O42" t="n">
         <v>1630.017957701686</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="C43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="D43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="E43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="F43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J43" t="n">
-        <v>43.37071990356117</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97845360809486</v>
+        <v>42.92717438271367</v>
       </c>
       <c r="L43" t="n">
-        <v>107.1215452536191</v>
+        <v>103.0702660282379</v>
       </c>
       <c r="M43" t="n">
-        <v>180.923125804639</v>
+        <v>176.8718465792579</v>
       </c>
       <c r="N43" t="n">
-        <v>258.4044861466521</v>
+        <v>254.353206921271</v>
       </c>
       <c r="O43" t="n">
-        <v>313.9547676295818</v>
+        <v>309.9034884042006</v>
       </c>
       <c r="P43" t="n">
-        <v>337.9669478170177</v>
+        <v>333.9156685916366</v>
       </c>
       <c r="Q43" t="n">
-        <v>337.9669478170177</v>
+        <v>333.9156685916366</v>
       </c>
       <c r="R43" t="n">
-        <v>337.9669478170177</v>
+        <v>337.9669478170179</v>
       </c>
       <c r="S43" t="n">
-        <v>320.6243903666892</v>
+        <v>320.6243903666893</v>
       </c>
       <c r="T43" t="n">
-        <v>296.3494743903858</v>
+        <v>296.349474390386</v>
       </c>
       <c r="U43" t="n">
-        <v>212.1611438377432</v>
+        <v>212.1611438377433</v>
       </c>
       <c r="V43" t="n">
         <v>162.4871769130643</v>
       </c>
       <c r="W43" t="n">
-        <v>78.08052815731156</v>
+        <v>78.08052815731162</v>
       </c>
       <c r="X43" t="n">
-        <v>55.10149854050214</v>
+        <v>55.10149854050218</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>1090.014198100788</v>
       </c>
       <c r="C44" t="n">
-        <v>926.0622024415838</v>
+        <v>926.0622024415841</v>
       </c>
       <c r="D44" t="n">
-        <v>772.8070251160414</v>
+        <v>772.8070251160416</v>
       </c>
       <c r="E44" t="n">
-        <v>592.0292937990051</v>
+        <v>592.0292937990052</v>
       </c>
       <c r="F44" t="n">
         <v>386.0539102906056</v>
       </c>
       <c r="G44" t="n">
-        <v>172.068978047201</v>
+        <v>172.0689780472011</v>
       </c>
       <c r="H44" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I44" t="n">
-        <v>50.8572122932845</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J44" t="n">
-        <v>281.7387010832227</v>
+        <v>69.27011756040625</v>
       </c>
       <c r="K44" t="n">
-        <v>447.3718060653168</v>
+        <v>234.9032225425003</v>
       </c>
       <c r="L44" t="n">
-        <v>705.1309466188457</v>
+        <v>693.5931750037411</v>
       </c>
       <c r="M44" t="n">
-        <v>1008.544200826953</v>
+        <v>1030.278752568796</v>
       </c>
       <c r="N44" t="n">
-        <v>1302.235001151126</v>
+        <v>1323.969552892968</v>
       </c>
       <c r="O44" t="n">
-        <v>1534.371257975989</v>
+        <v>1556.105809717832</v>
       </c>
       <c r="P44" t="n">
-        <v>1694.819799606362</v>
+        <v>1917.485163255917</v>
       </c>
       <c r="Q44" t="n">
-        <v>1877.270878119829</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="R44" t="n">
-        <v>1960.753576214748</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="S44" t="n">
         <v>1965.972033908998</v>
@@ -7691,7 +7691,7 @@
         <v>1456.732327578305</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.603516883701</v>
+        <v>1271.603516883702</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>660.4064266434646</v>
+        <v>748.2803459979282</v>
       </c>
       <c r="C45" t="n">
-        <v>485.9533973623376</v>
+        <v>573.8273167168012</v>
       </c>
       <c r="D45" t="n">
-        <v>337.0189877010863</v>
+        <v>573.8273167168012</v>
       </c>
       <c r="E45" t="n">
-        <v>177.7815326956308</v>
+        <v>414.5898617113457</v>
       </c>
       <c r="F45" t="n">
-        <v>177.7815326956308</v>
+        <v>268.0553037382307</v>
       </c>
       <c r="G45" t="n">
-        <v>39.31944067817996</v>
+        <v>129.5932117207799</v>
       </c>
       <c r="H45" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I45" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J45" t="n">
-        <v>63.46447896355312</v>
+        <v>63.46447896355335</v>
       </c>
       <c r="K45" t="n">
-        <v>231.3530382731817</v>
+        <v>231.3530382731819</v>
       </c>
       <c r="L45" t="n">
-        <v>518.5043212868693</v>
+        <v>518.5043212868695</v>
       </c>
       <c r="M45" t="n">
-        <v>905.5755461531271</v>
+        <v>905.575546153127</v>
       </c>
       <c r="N45" t="n">
         <v>1318.598407962676</v>
@@ -7749,28 +7749,28 @@
         <v>1965.972033908998</v>
       </c>
       <c r="R45" t="n">
-        <v>1965.972033908998</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="S45" t="n">
-        <v>1965.972033908998</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="T45" t="n">
-        <v>1961.828966028631</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="U45" t="n">
-        <v>1733.623027593964</v>
+        <v>1653.281609928359</v>
       </c>
       <c r="V45" t="n">
-        <v>1498.470919362221</v>
+        <v>1418.129501696616</v>
       </c>
       <c r="W45" t="n">
-        <v>1244.233562634019</v>
+        <v>1163.892144968415</v>
       </c>
       <c r="X45" t="n">
-        <v>1036.382062428487</v>
+        <v>956.040644762882</v>
       </c>
       <c r="Y45" t="n">
-        <v>828.6217636635326</v>
+        <v>748.2803459979282</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="C46" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="D46" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="E46" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="F46" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G46" t="n">
-        <v>43.37071990356083</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H46" t="n">
-        <v>43.37071990356083</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I46" t="n">
-        <v>43.37071990356083</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J46" t="n">
-        <v>43.37071990356083</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97845360809452</v>
+        <v>42.92717438271367</v>
       </c>
       <c r="L46" t="n">
-        <v>107.1215452536187</v>
+        <v>103.0702660282379</v>
       </c>
       <c r="M46" t="n">
-        <v>180.9231258046387</v>
+        <v>176.8718465792579</v>
       </c>
       <c r="N46" t="n">
-        <v>258.4044861466518</v>
+        <v>254.353206921271</v>
       </c>
       <c r="O46" t="n">
-        <v>313.9547676295815</v>
+        <v>309.9034884042006</v>
       </c>
       <c r="P46" t="n">
-        <v>337.9669478170174</v>
+        <v>333.9156685916366</v>
       </c>
       <c r="Q46" t="n">
-        <v>337.9669478170174</v>
+        <v>333.9156685916366</v>
       </c>
       <c r="R46" t="n">
-        <v>337.9669478170174</v>
+        <v>337.9669478170175</v>
       </c>
       <c r="S46" t="n">
-        <v>320.6243903666889</v>
+        <v>320.624390366689</v>
       </c>
       <c r="T46" t="n">
-        <v>296.3494743903856</v>
+        <v>296.3494743903857</v>
       </c>
       <c r="U46" t="n">
-        <v>212.161143837743</v>
+        <v>212.1611438377431</v>
       </c>
       <c r="V46" t="n">
-        <v>162.4871769130641</v>
+        <v>162.4871769130642</v>
       </c>
       <c r="W46" t="n">
-        <v>78.08052815731145</v>
+        <v>78.08052815731151</v>
       </c>
       <c r="X46" t="n">
-        <v>55.10149854050209</v>
+        <v>55.10149854050212</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.31944067817996</v>
+        <v>39.31944067817997</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>146.6444495984684</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
@@ -8778,10 +8778,10 @@
         <v>453.8822398489552</v>
       </c>
       <c r="N12" t="n">
-        <v>385.7123410129735</v>
+        <v>441.305775752316</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>338.2688845373871</v>
       </c>
       <c r="P12" t="n">
         <v>83.17127750797977</v>
@@ -9006,10 +9006,10 @@
         <v>101.7021077794258</v>
       </c>
       <c r="K15" t="n">
-        <v>94.88083366951942</v>
+        <v>94.8808336695194</v>
       </c>
       <c r="L15" t="n">
-        <v>273.9287503362017</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>453.8822398489552</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>221.5511736726796</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0212271432491</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.7021077794258</v>
       </c>
       <c r="K18" t="n">
-        <v>94.88083366951942</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9252,13 @@
         <v>453.8822398489552</v>
       </c>
       <c r="N18" t="n">
-        <v>441.305775752316</v>
+        <v>410.1012685739565</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>197.1622461116966</v>
+        <v>83.17127750797977</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0212271432491</v>
@@ -9480,7 +9480,7 @@
         <v>101.7021077794258</v>
       </c>
       <c r="K21" t="n">
-        <v>94.88083366951942</v>
+        <v>94.8808336695194</v>
       </c>
       <c r="L21" t="n">
         <v>273.9287503362017</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.7021077794258</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.88083366951942</v>
+        <v>94.8808336695194</v>
       </c>
       <c r="L24" t="n">
-        <v>273.9287503362016</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>453.8822398489551</v>
+        <v>453.8822398489552</v>
       </c>
       <c r="N24" t="n">
-        <v>441.305775752316</v>
+        <v>320.0052532240754</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404084</v>
+        <v>126.091035340408</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125789</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>210.0772877358496</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.4065958057406</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>223.355795762943</v>
       </c>
       <c r="E11" t="n">
-        <v>250.6031242145219</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>275.5487998839715</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>90.46716808147814</v>
       </c>
       <c r="V11" t="n">
-        <v>32.78495948677825</v>
+        <v>196.425012612395</v>
       </c>
       <c r="W11" t="n">
         <v>217.9137228596731</v>
@@ -23324,7 +23324,7 @@
         <v>238.4038548207291</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.9106927983137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.9456459132676</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>211.3052857688593</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.603124214522</v>
       </c>
       <c r="F14" t="n">
-        <v>275.5487998839715</v>
+        <v>51.20859681530683</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>203.0552122059869</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.97885544792419</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.3620008225252</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.59194205983404</v>
       </c>
       <c r="U14" t="n">
-        <v>119.978627968035</v>
+        <v>119.9786279680351</v>
       </c>
       <c r="V14" t="n">
-        <v>196.425012612395</v>
+        <v>196.4250126123951</v>
       </c>
       <c r="W14" t="n">
-        <v>217.9137228596731</v>
+        <v>217.9137228596732</v>
       </c>
       <c r="X14" t="n">
-        <v>238.4038548207291</v>
+        <v>238.4038548207292</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.250177904590146e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26326,16 +26326,16 @@
         <v>228201.1882338693</v>
       </c>
       <c r="G2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="H2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="J2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="K2" t="n">
         <v>266838.5752058919</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>4753.489354326401</v>
       </c>
       <c r="E3" t="n">
-        <v>313072.4135187423</v>
+        <v>313072.4135187424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>88339.84283304246</v>
       </c>
       <c r="M3" t="n">
-        <v>83808.16974957826</v>
+        <v>83808.16974957834</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35048.04505406551</v>
+        <v>35048.04505406549</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>259604.3742888316</v>
+        <v>259604.3742888315</v>
       </c>
       <c r="F4" t="n">
         <v>259604.3742888315</v>
       </c>
       <c r="G4" t="n">
-        <v>327221.856661248</v>
+        <v>327221.8566612479</v>
       </c>
       <c r="H4" t="n">
         <v>327221.8566612479</v>
@@ -26476,13 +26476,13 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>36789.76969573051</v>
+        <v>36789.76969573052</v>
       </c>
       <c r="F5" t="n">
-        <v>36789.76969573051</v>
+        <v>36789.7696957305</v>
       </c>
       <c r="G5" t="n">
-        <v>45740.23288807816</v>
+        <v>45740.23288807814</v>
       </c>
       <c r="H5" t="n">
         <v>45740.23288807814</v>
@@ -26494,16 +26494,16 @@
         <v>57328.59935719749</v>
       </c>
       <c r="K5" t="n">
-        <v>57328.59935719748</v>
+        <v>57328.59935719749</v>
       </c>
       <c r="L5" t="n">
-        <v>56731.03253284344</v>
+        <v>56731.03253284345</v>
       </c>
       <c r="M5" t="n">
         <v>49641.85434948916</v>
       </c>
       <c r="N5" t="n">
-        <v>49641.85434948915</v>
+        <v>49641.85434948914</v>
       </c>
       <c r="O5" t="n">
         <v>49641.85434948915</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-171384.4479767768</v>
+        <v>-171388.8615546449</v>
       </c>
       <c r="C6" t="n">
-        <v>-171384.4479767767</v>
+        <v>-171388.8615546448</v>
       </c>
       <c r="D6" t="n">
         <v>-174999.4679021351</v>
       </c>
       <c r="E6" t="n">
-        <v>-381265.3692694352</v>
+        <v>-381562.5799384508</v>
       </c>
       <c r="F6" t="n">
-        <v>-68192.95575069278</v>
+        <v>-68490.16641970817</v>
       </c>
       <c r="G6" t="n">
-        <v>-191296.057776544</v>
+        <v>-191296.0577765438</v>
       </c>
       <c r="H6" t="n">
-        <v>-106123.5143434339</v>
+        <v>-106123.514343434</v>
       </c>
       <c r="I6" t="n">
-        <v>-106123.514343434</v>
+        <v>-106123.5143434338</v>
       </c>
       <c r="J6" t="n">
-        <v>-230364.0083183424</v>
+        <v>-230364.0083183425</v>
       </c>
       <c r="K6" t="n">
         <v>-113785.2439256204</v>
@@ -26552,16 +26552,16 @@
         <v>-201450.543230329</v>
       </c>
       <c r="M6" t="n">
-        <v>-188954.3002915207</v>
+        <v>-188954.3002915208</v>
       </c>
       <c r="N6" t="n">
-        <v>-105146.1305419421</v>
+        <v>-105146.1305419422</v>
       </c>
       <c r="O6" t="n">
         <v>-140194.1755960078</v>
       </c>
       <c r="P6" t="n">
-        <v>-105146.1305419425</v>
+        <v>-105146.1305419424</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>131.3272458577399</v>
       </c>
       <c r="F2" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="G2" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="H2" t="n">
         <v>237.7929251491272</v>
@@ -26796,7 +26796,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="F4" t="n">
         <v>379.1582113173973</v>
@@ -26814,16 +26814,16 @@
         <v>690.7675711294186</v>
       </c>
       <c r="K4" t="n">
-        <v>690.7675711294185</v>
+        <v>690.7675711294186</v>
       </c>
       <c r="L4" t="n">
-        <v>675.4648336142834</v>
+        <v>675.4648336142835</v>
       </c>
       <c r="M4" t="n">
         <v>491.4930084772495</v>
       </c>
       <c r="N4" t="n">
-        <v>491.4930084772493</v>
+        <v>491.4930084772492</v>
       </c>
       <c r="O4" t="n">
         <v>491.4930084772495</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.81005631758191</v>
+        <v>43.81005631758194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>110.4248035413031</v>
       </c>
       <c r="M2" t="n">
-        <v>48.72555620951084</v>
+        <v>48.72555620951098</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758188</v>
+        <v>43.81005631758185</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.6093598120213</v>
+        <v>311.6093598120212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>179.8836486652284</v>
+        <v>179.8836486652283</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758191</v>
+        <v>43.81005631758194</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>325.9961509124362</v>
       </c>
       <c r="I8" t="n">
-        <v>203.6344894210972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>142.3423429402659</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>132.3371525163108</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>99.50338435942338</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>236.3922456457846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>156.4896106304034</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V10" t="n">
-        <v>241.3804328556036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>271.220260821456</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="C12" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="D12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.665999336552</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="T12" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="V12" t="n">
-        <v>107.0992341621989</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>107.0992341621983</v>
+      </c>
+      <c r="Y12" t="n">
         <v>131.3272458577399</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,7 +28269,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="J13" t="n">
-        <v>131.3272458577399</v>
+        <v>77.58996333455183</v>
       </c>
       <c r="K13" t="n">
         <v>131.3272458577399</v>
@@ -28281,16 +28281,16 @@
         <v>131.3272458577399</v>
       </c>
       <c r="N13" t="n">
-        <v>131.3272458577399</v>
+        <v>49.91909893674463</v>
       </c>
       <c r="O13" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5090622712973</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="R13" t="n">
         <v>131.3272458577399</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="C14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="D14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="E14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="F14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="G14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="H14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="I14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>118.6344583967598</v>
       </c>
       <c r="S14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="V14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="W14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="X14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.45959347168773</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>131.3272458577399</v>
+        <v>23.45959347168868</v>
       </c>
       <c r="H15" t="n">
         <v>109.665999336552</v>
@@ -28454,25 +28454,25 @@
         <v>83.63964069051126</v>
       </c>
       <c r="S15" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="T15" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.3272458577398</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="C16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="D16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="E16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="F16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="G16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="H16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="I16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="J16" t="n">
-        <v>77.58996333455183</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="K16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="L16" t="n">
-        <v>49.91909893674554</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="M16" t="n">
-        <v>131.3272458577399</v>
+        <v>127.5090622712989</v>
       </c>
       <c r="N16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="O16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="R16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="S16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="T16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="U16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="V16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="W16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="X16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.3272458577399</v>
+        <v>131.3272458577398</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="C17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="D17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="E17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="F17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="G17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="H17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="I17" t="n">
         <v>191.306101305664</v>
@@ -28618,19 +28618,19 @@
         <v>220.9191879175739</v>
       </c>
       <c r="U17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="W17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
     </row>
     <row r="18">
@@ -28643,19 +28643,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.1246920637143</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H18" t="n">
         <v>109.665999336552</v>
@@ -28694,7 +28694,7 @@
         <v>166.7414821159791</v>
       </c>
       <c r="T18" t="n">
-        <v>191.8446523907905</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28706,10 +28706,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28773,16 +28773,16 @@
         <v>220.1295479442211</v>
       </c>
       <c r="T19" t="n">
-        <v>46.93104677916338</v>
+        <v>226.9925828849361</v>
       </c>
       <c r="U19" t="n">
-        <v>237.7929251491273</v>
+        <v>57.73138904335471</v>
       </c>
       <c r="V19" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="W19" t="n">
-        <v>237.7929251491273</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28886,13 +28886,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>68.84589346879388</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.665999336552</v>
@@ -28937,7 +28937,7 @@
         <v>225.9238790503212</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>48.27828411066926</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>237.7929251491272</v>
       </c>
       <c r="V22" t="n">
-        <v>237.7929251491272</v>
+        <v>57.73138904335471</v>
       </c>
       <c r="W22" t="n">
         <v>237.7929251491272</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.52311724632233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>94.40933199584532</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I24" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,25 +29165,25 @@
         <v>83.63964069051126</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>127.377260252926</v>
       </c>
       <c r="T24" t="n">
         <v>199.0923763501127</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>237.7929251491272</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>32.84465459278063</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.767935273846</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.48514267562186</v>
       </c>
       <c r="R25" t="n">
         <v>167.2645182635819</v>
@@ -29259,7 +29259,7 @@
         <v>237.7929251491272</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>45.64811928326469</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29366,10 +29366,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>55.97422683100538</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H27" t="n">
-        <v>109.665999336552</v>
+        <v>28.56275507028126</v>
       </c>
       <c r="I27" t="n">
         <v>80.23671347604525</v>
@@ -29408,10 +29408,10 @@
         <v>150.2757356089692</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>150.2757356089692</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.2757356089692</v>
       </c>
       <c r="D28" t="n">
-        <v>150.2757356089692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>150.2757356089692</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.2757356089692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.2757356089692</v>
@@ -29451,13 +29451,13 @@
         <v>150.2757356089692</v>
       </c>
       <c r="I28" t="n">
-        <v>150.2757356089692</v>
+        <v>148.7429310009042</v>
       </c>
       <c r="J28" t="n">
         <v>150.2757356089692</v>
       </c>
       <c r="K28" t="n">
-        <v>5.279467017878968</v>
+        <v>17.16899476513879</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,13 +29466,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="O28" t="n">
         <v>150.2757356089692</v>
       </c>
       <c r="P28" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.2757356089692</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H30" t="n">
         <v>109.665999336552</v>
@@ -29639,19 +29639,19 @@
         <v>83.63964069051126</v>
       </c>
       <c r="S30" t="n">
-        <v>55.97422683100544</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="T30" t="n">
-        <v>150.2757356089692</v>
+        <v>69.17249134269835</v>
       </c>
       <c r="U30" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.2757356089692</v>
       </c>
       <c r="D31" t="n">
-        <v>150.2757356089692</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>150.2757356089692</v>
       </c>
       <c r="F31" t="n">
-        <v>150.2757356089692</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>150.2757356089692</v>
@@ -29694,22 +29694,22 @@
         <v>150.2757356089692</v>
       </c>
       <c r="K31" t="n">
+        <v>96.11781473608596</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.2757356089692</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>150.2757356089692</v>
-      </c>
-      <c r="P31" t="n">
-        <v>89.60286455929094</v>
       </c>
       <c r="Q31" t="n">
         <v>67.48514267562186</v>
@@ -29776,7 +29776,7 @@
         <v>154.2348598588849</v>
       </c>
       <c r="L32" t="n">
-        <v>58.01008397395634</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="M32" t="n">
         <v>154.2348598588849</v>
@@ -29788,7 +29788,7 @@
         <v>154.2348598588849</v>
       </c>
       <c r="P32" t="n">
-        <v>154.2348598588849</v>
+        <v>58.01008397395708</v>
       </c>
       <c r="Q32" t="n">
         <v>154.2348598588849</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>44.09685408125843</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H33" t="n">
-        <v>109.665999336552</v>
+        <v>16.68538232053429</v>
       </c>
       <c r="I33" t="n">
         <v>80.23671347604525</v>
@@ -29876,7 +29876,7 @@
         <v>83.63964069051126</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="T33" t="n">
         <v>154.2348598588849</v>
@@ -29885,7 +29885,7 @@
         <v>154.2348598588849</v>
       </c>
       <c r="V33" t="n">
-        <v>154.2348598588849</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29913,10 +29913,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="G34" t="n">
         <v>154.2348598588849</v>
@@ -29925,19 +29925,19 @@
         <v>154.2348598588849</v>
       </c>
       <c r="I34" t="n">
-        <v>148.7429310009042</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="J34" t="n">
-        <v>77.58996333455183</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="K34" t="n">
-        <v>29.50326818125939</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="L34" t="n">
-        <v>154.2348598588849</v>
+        <v>84.98659360956145</v>
       </c>
       <c r="M34" t="n">
-        <v>154.2348598588849</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>202.9604160683959</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>140.588551065288</v>
+        <v>202.9604160683959</v>
       </c>
       <c r="R35" t="n">
-        <v>202.9604160683959</v>
+        <v>140.5885510652874</v>
       </c>
       <c r="S35" t="n">
         <v>202.9604160683959</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,19 +30071,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.63964069051126</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.7414821159791</v>
+        <v>150.649310402363</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>202.9604160683959</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>160.4690646362678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.9241814196959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30159,7 +30159,7 @@
         <v>167.767935273846</v>
       </c>
       <c r="H37" t="n">
-        <v>160.2441078278826</v>
+        <v>164.3363090656411</v>
       </c>
       <c r="I37" t="n">
         <v>148.7429310009042</v>
@@ -30250,22 +30250,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>140.5885510652865</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>202.9604160683959</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>140.5885510652871</v>
       </c>
       <c r="R38" t="n">
         <v>202.9604160683959</v>
@@ -30308,16 +30308,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30353,10 +30353,10 @@
         <v>166.7414821159791</v>
       </c>
       <c r="T39" t="n">
-        <v>138.1499815273194</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>28.15599515563466</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>183.9241814196956</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30393,7 +30393,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>171.8601365116046</v>
+        <v>167.767935273846</v>
       </c>
       <c r="H40" t="n">
         <v>160.2441078278826</v>
@@ -30481,34 +30481,34 @@
         <v>202.9604160683958</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>145.8597204534191</v>
+      </c>
+      <c r="P41" t="n">
         <v>202.9604160683958</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>140.5885510652878</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>202.9604160683958</v>
       </c>
       <c r="S41" t="n">
-        <v>202.9604160683958</v>
+        <v>197.689246680265</v>
       </c>
       <c r="T41" t="n">
         <v>202.9604160683958</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>76.1350762744824</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H42" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>27.25963325727451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>171.3390223363866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30663,7 +30663,7 @@
         <v>67.48514267562186</v>
       </c>
       <c r="R43" t="n">
-        <v>167.2645182635819</v>
+        <v>171.3567195013409</v>
       </c>
       <c r="S43" t="n">
         <v>202.9604160683958</v>
@@ -30715,34 +30715,34 @@
         <v>202.9604160683959</v>
       </c>
       <c r="I44" t="n">
+        <v>191.306101305664</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>202.9604160683959</v>
       </c>
-      <c r="J44" t="n">
+      <c r="M44" t="n">
+        <v>33.60840743125988</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>202.9604160683959</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>140.5885510652878</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>202.9604160683959</v>
+        <v>118.6344583967598</v>
       </c>
       <c r="S44" t="n">
         <v>202.9604160683959</v>
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.665999336552</v>
+        <v>20.29496600437808</v>
       </c>
       <c r="I45" t="n">
         <v>80.23671347604525</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.63964069051126</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>166.7414821159791</v>
       </c>
       <c r="T45" t="n">
-        <v>194.9907391485499</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30867,7 +30867,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>171.8601365116045</v>
+        <v>167.767935273846</v>
       </c>
       <c r="H46" t="n">
         <v>160.2441078278826</v>
@@ -30900,7 +30900,7 @@
         <v>67.48514267562186</v>
       </c>
       <c r="R46" t="n">
-        <v>167.2645182635819</v>
+        <v>171.3567195013405</v>
       </c>
       <c r="S46" t="n">
         <v>202.9604160683959</v>
@@ -31759,31 +31759,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J11" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K11" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L11" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M11" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N11" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O11" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P11" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q11" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R11" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S11" t="n">
         <v>11.33082290598031</v>
@@ -31829,28 +31829,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H12" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I12" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J12" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K12" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L12" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M12" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N12" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O12" t="n">
         <v>63.29912692429129</v>
@@ -31859,13 +31859,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R12" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S12" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T12" t="n">
         <v>1.0723523447089</v>
@@ -31914,22 +31914,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I13" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J13" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K13" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L13" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M13" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N13" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O13" t="n">
         <v>31.52626752326303</v>
@@ -31941,13 +31941,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R13" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S13" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U13" t="n">
         <v>0.01216604097887692</v>
@@ -31996,31 +31996,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J14" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K14" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L14" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M14" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N14" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O14" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P14" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q14" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R14" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S14" t="n">
         <v>11.33082290598031</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H15" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I15" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J15" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K15" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L15" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M15" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N15" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O15" t="n">
         <v>63.29912692429129</v>
@@ -32096,13 +32096,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R15" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S15" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T15" t="n">
         <v>1.0723523447089</v>
@@ -32151,22 +32151,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I16" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J16" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K16" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L16" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M16" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N16" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O16" t="n">
         <v>31.52626752326303</v>
@@ -32178,13 +32178,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R16" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S16" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U16" t="n">
         <v>0.01216604097887692</v>
@@ -32233,31 +32233,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J17" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K17" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L17" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M17" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N17" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O17" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P17" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q17" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R17" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S17" t="n">
         <v>11.33082290598031</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H18" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I18" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J18" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K18" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L18" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M18" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N18" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O18" t="n">
         <v>63.29912692429129</v>
@@ -32333,13 +32333,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R18" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S18" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T18" t="n">
         <v>1.0723523447089</v>
@@ -32388,22 +32388,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I19" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J19" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K19" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L19" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M19" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N19" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O19" t="n">
         <v>31.52626752326303</v>
@@ -32415,13 +32415,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R19" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S19" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U19" t="n">
         <v>0.01216604097887692</v>
@@ -32470,31 +32470,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J20" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K20" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L20" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M20" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N20" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O20" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P20" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q20" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R20" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S20" t="n">
         <v>11.33082290598031</v>
@@ -32540,28 +32540,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H21" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I21" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J21" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K21" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L21" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M21" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N21" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O21" t="n">
         <v>63.29912692429129</v>
@@ -32570,13 +32570,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R21" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S21" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T21" t="n">
         <v>1.0723523447089</v>
@@ -32625,22 +32625,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I22" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J22" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K22" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L22" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M22" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N22" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O22" t="n">
         <v>31.52626752326303</v>
@@ -32652,13 +32652,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R22" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S22" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U22" t="n">
         <v>0.01216604097887692</v>
@@ -32707,31 +32707,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J23" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K23" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L23" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M23" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N23" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O23" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P23" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q23" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R23" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S23" t="n">
         <v>11.33082290598031</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H24" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I24" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J24" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K24" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L24" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M24" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N24" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O24" t="n">
         <v>63.29912692429129</v>
@@ -32807,13 +32807,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R24" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S24" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T24" t="n">
         <v>1.0723523447089</v>
@@ -32862,22 +32862,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I25" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J25" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K25" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L25" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M25" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N25" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O25" t="n">
         <v>31.52626752326303</v>
@@ -32889,13 +32889,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R25" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S25" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U25" t="n">
         <v>0.01216604097887692</v>
@@ -32944,31 +32944,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J26" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K26" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L26" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M26" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N26" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O26" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P26" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q26" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R26" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S26" t="n">
         <v>11.33082290598031</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H27" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I27" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J27" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K27" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L27" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M27" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N27" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O27" t="n">
         <v>63.29912692429129</v>
@@ -33044,13 +33044,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R27" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S27" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T27" t="n">
         <v>1.0723523447089</v>
@@ -33099,22 +33099,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I28" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J28" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K28" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L28" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M28" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N28" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O28" t="n">
         <v>31.52626752326303</v>
@@ -33126,13 +33126,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R28" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S28" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U28" t="n">
         <v>0.01216604097887692</v>
@@ -33181,31 +33181,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J29" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K29" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L29" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M29" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N29" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O29" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P29" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q29" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R29" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S29" t="n">
         <v>11.33082290598031</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H30" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I30" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J30" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K30" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L30" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M30" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N30" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O30" t="n">
         <v>63.29912692429129</v>
@@ -33281,13 +33281,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R30" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S30" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T30" t="n">
         <v>1.0723523447089</v>
@@ -33336,22 +33336,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I31" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J31" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K31" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L31" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M31" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N31" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O31" t="n">
         <v>31.52626752326303</v>
@@ -33363,13 +33363,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R31" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S31" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U31" t="n">
         <v>0.01216604097887692</v>
@@ -33418,31 +33418,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J32" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K32" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L32" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M32" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N32" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O32" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P32" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q32" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R32" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S32" t="n">
         <v>11.33082290598031</v>
@@ -33488,28 +33488,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H33" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I33" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J33" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K33" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L33" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M33" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N33" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O33" t="n">
         <v>63.29912692429129</v>
@@ -33518,13 +33518,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R33" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S33" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T33" t="n">
         <v>1.0723523447089</v>
@@ -33573,22 +33573,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I34" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J34" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K34" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L34" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M34" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N34" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O34" t="n">
         <v>31.52626752326303</v>
@@ -33600,13 +33600,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R34" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S34" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U34" t="n">
         <v>0.01216604097887692</v>
@@ -33655,31 +33655,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J35" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K35" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L35" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M35" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N35" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O35" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P35" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q35" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R35" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S35" t="n">
         <v>11.33082290598031</v>
@@ -33725,28 +33725,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H36" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I36" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J36" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K36" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L36" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M36" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N36" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O36" t="n">
         <v>63.29912692429129</v>
@@ -33755,13 +33755,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R36" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S36" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T36" t="n">
         <v>1.0723523447089</v>
@@ -33810,22 +33810,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I37" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J37" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K37" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L37" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M37" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N37" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O37" t="n">
         <v>31.52626752326303</v>
@@ -33837,13 +33837,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R37" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S37" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U37" t="n">
         <v>0.01216604097887692</v>
@@ -33892,31 +33892,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J38" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K38" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L38" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M38" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N38" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O38" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P38" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q38" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R38" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S38" t="n">
         <v>11.33082290598031</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H39" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I39" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J39" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K39" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L39" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M39" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N39" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O39" t="n">
         <v>63.29912692429129</v>
@@ -33992,13 +33992,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R39" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S39" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T39" t="n">
         <v>1.0723523447089</v>
@@ -34047,22 +34047,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I40" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J40" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K40" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L40" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M40" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N40" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O40" t="n">
         <v>31.52626752326303</v>
@@ -34074,13 +34074,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R40" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S40" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U40" t="n">
         <v>0.01216604097887692</v>
@@ -34129,31 +34129,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J41" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K41" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L41" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M41" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N41" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O41" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P41" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q41" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R41" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S41" t="n">
         <v>11.33082290598031</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H42" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I42" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J42" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K42" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L42" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M42" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N42" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O42" t="n">
         <v>63.29912692429129</v>
@@ -34229,13 +34229,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R42" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S42" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T42" t="n">
         <v>1.0723523447089</v>
@@ -34284,22 +34284,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I43" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J43" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K43" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L43" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M43" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N43" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O43" t="n">
         <v>31.52626752326303</v>
@@ -34311,13 +34311,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R43" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S43" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U43" t="n">
         <v>0.01216604097887692</v>
@@ -34366,31 +34366,31 @@
         <v>19.16978826474189</v>
       </c>
       <c r="J44" t="n">
-        <v>42.20249832655824</v>
+        <v>42.20249832655825</v>
       </c>
       <c r="K44" t="n">
-        <v>63.25060512239571</v>
+        <v>63.25060512239572</v>
       </c>
       <c r="L44" t="n">
-        <v>78.46796865542456</v>
+        <v>78.46796865542457</v>
       </c>
       <c r="M44" t="n">
-        <v>87.31073428808399</v>
+        <v>87.31073428808401</v>
       </c>
       <c r="N44" t="n">
-        <v>88.72351324942757</v>
+        <v>88.72351324942758</v>
       </c>
       <c r="O44" t="n">
         <v>83.77909765880369</v>
       </c>
       <c r="P44" t="n">
-        <v>71.50352155386068</v>
+        <v>71.50352155386069</v>
       </c>
       <c r="Q44" t="n">
         <v>53.69616684972817</v>
       </c>
       <c r="R44" t="n">
-        <v>31.23465954438992</v>
+        <v>31.23465954438993</v>
       </c>
       <c r="S44" t="n">
         <v>11.33082290598031</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2660460659343081</v>
+        <v>0.2660460659343082</v>
       </c>
       <c r="H45" t="n">
         <v>2.569444899944503</v>
       </c>
       <c r="I45" t="n">
-        <v>9.159919375369821</v>
+        <v>9.159919375369823</v>
       </c>
       <c r="J45" t="n">
-        <v>25.13551888724093</v>
+        <v>25.13551888724094</v>
       </c>
       <c r="K45" t="n">
         <v>42.96060530483958</v>
       </c>
       <c r="L45" t="n">
-        <v>57.76583550034178</v>
+        <v>57.76583550034179</v>
       </c>
       <c r="M45" t="n">
         <v>67.41000539046044</v>
       </c>
       <c r="N45" t="n">
-        <v>69.19414764841464</v>
+        <v>69.19414764841466</v>
       </c>
       <c r="O45" t="n">
         <v>63.29912692429129</v>
@@ -34466,13 +34466,13 @@
         <v>50.80312990635048</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.96054694277239</v>
+        <v>33.9605469427724</v>
       </c>
       <c r="R45" t="n">
         <v>16.51819346213188</v>
       </c>
       <c r="S45" t="n">
-        <v>4.941688987858747</v>
+        <v>4.941688987858748</v>
       </c>
       <c r="T45" t="n">
         <v>1.0723523447089</v>
@@ -34521,22 +34521,22 @@
         <v>1.983064679556937</v>
       </c>
       <c r="I46" t="n">
-        <v>6.707543926354134</v>
+        <v>6.707543926354135</v>
       </c>
       <c r="J46" t="n">
-        <v>15.76921678212094</v>
+        <v>15.76921678212095</v>
       </c>
       <c r="K46" t="n">
         <v>25.9136672850078</v>
       </c>
       <c r="L46" t="n">
-        <v>33.16057236142548</v>
+        <v>33.16057236142549</v>
       </c>
       <c r="M46" t="n">
         <v>34.96317409979574</v>
       </c>
       <c r="N46" t="n">
-        <v>34.13182796623917</v>
+        <v>34.13182796623918</v>
       </c>
       <c r="O46" t="n">
         <v>31.52626752326303</v>
@@ -34548,13 +34548,13 @@
         <v>18.67690057607253</v>
       </c>
       <c r="R46" t="n">
-        <v>10.02887311358752</v>
+        <v>10.02887311358753</v>
       </c>
       <c r="S46" t="n">
         <v>3.887050092751169</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9530065433453572</v>
+        <v>0.9530065433453573</v>
       </c>
       <c r="U46" t="n">
         <v>0.01216604097887692</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N9" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K11" t="n">
         <v>167.3061666485799</v>
@@ -35428,7 +35428,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.70546763518336</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>290.0518010239268</v>
       </c>
       <c r="M12" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="N12" t="n">
-        <v>323.5647765780549</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O12" t="n">
-        <v>314.5652017565764</v>
+        <v>258.971767017234</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.73728252318808</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>134.9714213168648</v>
+        <v>134.9714213168649</v>
       </c>
       <c r="L13" t="n">
-        <v>192.0778434794815</v>
+        <v>192.0778434794816</v>
       </c>
       <c r="M13" t="n">
-        <v>205.8742969193762</v>
+        <v>205.8742969193763</v>
       </c>
       <c r="N13" t="n">
-        <v>209.5912462032077</v>
+        <v>128.1830992822124</v>
       </c>
       <c r="O13" t="n">
-        <v>187.4386412950426</v>
+        <v>187.4386412950427</v>
       </c>
       <c r="P13" t="n">
-        <v>24.25472746205653</v>
+        <v>155.5819733197965</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.02391959567546</v>
+        <v>63.84210318211808</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K14" t="n">
         <v>167.3061666485799</v>
@@ -35665,7 +35665,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.70546763518336</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>193.1402060566693</v>
+        <v>290.0518010239268</v>
       </c>
       <c r="M15" t="n">
         <v>379.1582113173973</v>
@@ -35741,7 +35741,7 @@
         <v>314.5652017565764</v>
       </c>
       <c r="P15" t="n">
-        <v>235.2914911319574</v>
+        <v>138.3798961646998</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>53.737282523188</v>
       </c>
       <c r="K16" t="n">
         <v>134.9714213168648</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6696965584872</v>
+        <v>192.0778434794815</v>
       </c>
       <c r="M16" t="n">
-        <v>205.8742969193762</v>
+        <v>202.0561133329352</v>
       </c>
       <c r="N16" t="n">
-        <v>209.5912462032077</v>
+        <v>209.5912462032076</v>
       </c>
       <c r="O16" t="n">
-        <v>187.4386412950426</v>
+        <v>187.4386412950425</v>
       </c>
       <c r="P16" t="n">
-        <v>155.5819733197964</v>
+        <v>24.25472746205653</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.84210318211805</v>
+        <v>63.84210318211797</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K17" t="n">
         <v>167.3061666485799</v>
@@ -35902,7 +35902,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.70546763518336</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.38892756098308</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>169.5844033430592</v>
       </c>
       <c r="L18" t="n">
         <v>290.0518010239268</v>
@@ -35972,13 +35972,13 @@
         <v>379.1582113173973</v>
       </c>
       <c r="N18" t="n">
-        <v>379.1582113173973</v>
+        <v>347.9537041390379</v>
       </c>
       <c r="O18" t="n">
         <v>314.5652017565764</v>
       </c>
       <c r="P18" t="n">
-        <v>113.9909686037168</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L19" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M19" t="n">
         <v>74.54705106163632</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K20" t="n">
         <v>167.3061666485799</v>
@@ -36139,7 +36139,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.70546763518336</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L22" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M22" t="n">
         <v>74.54705106163632</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K23" t="n">
         <v>167.3061666485799</v>
@@ -36376,7 +36376,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.70546763518336</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.38892756098308</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>193.1402060566691</v>
+        <v>290.0518010239268</v>
       </c>
       <c r="M24" t="n">
         <v>379.1582113173973</v>
       </c>
       <c r="N24" t="n">
-        <v>379.1582113173973</v>
+        <v>257.8576887891568</v>
       </c>
       <c r="O24" t="n">
         <v>314.5652017565764</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L25" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M25" t="n">
         <v>74.54705106163632</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.660262590756815</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.8417729624</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.854687586037926</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,28 +36747,28 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.532804608065021</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>72.68577227441735</v>
       </c>
       <c r="K28" t="n">
-        <v>8.923642477003913</v>
+        <v>20.81317022426374</v>
       </c>
       <c r="L28" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M28" t="n">
         <v>74.54705106163632</v>
       </c>
       <c r="N28" t="n">
-        <v>78.26400034546776</v>
+        <v>228.5397359544369</v>
       </c>
       <c r="O28" t="n">
         <v>206.3871310462719</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5304630710257</v>
+        <v>24.25472746205653</v>
       </c>
       <c r="Q28" t="n">
         <v>82.79059293334731</v>
@@ -36850,10 +36850,10 @@
         <v>312.344969579043</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.9812032441526</v>
+        <v>193.9812032441525</v>
       </c>
       <c r="R29" t="n">
-        <v>31.64127721220945</v>
+        <v>31.64127721220942</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.660262590756844</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.841772962400029</v>
+        <v>3.8417729624</v>
       </c>
       <c r="F31" t="n">
-        <v>4.854687586037954</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.68577227441737</v>
+        <v>72.68577227441735</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9199110680941</v>
+        <v>99.76199019521091</v>
       </c>
       <c r="L31" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M31" t="n">
         <v>74.54705106163632</v>
       </c>
       <c r="N31" t="n">
-        <v>78.26400034546776</v>
+        <v>228.5397359544369</v>
       </c>
       <c r="O31" t="n">
-        <v>206.3871310462719</v>
+        <v>56.1113954373027</v>
       </c>
       <c r="P31" t="n">
-        <v>113.8575920213475</v>
+        <v>174.5304630710257</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>184.4880688308307</v>
+        <v>184.4880688308306</v>
       </c>
       <c r="K32" t="n">
         <v>321.5410265074648</v>
       </c>
       <c r="L32" t="n">
-        <v>318.3728522098441</v>
+        <v>414.5976280947726</v>
       </c>
       <c r="M32" t="n">
         <v>460.7128944125287</v>
       </c>
       <c r="N32" t="n">
-        <v>450.8922339237058</v>
+        <v>450.8922339237057</v>
       </c>
       <c r="O32" t="n">
-        <v>388.7159273587473</v>
+        <v>388.7159273587472</v>
       </c>
       <c r="P32" t="n">
-        <v>316.3040938289587</v>
+        <v>220.0793179440309</v>
       </c>
       <c r="Q32" t="n">
         <v>197.9403274940683</v>
       </c>
       <c r="R32" t="n">
-        <v>35.60040146212518</v>
+        <v>35.60040146212515</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>7.800897212315732</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>8.813811835953658</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,19 +37221,19 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5.491928857980754</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.64489652433308</v>
       </c>
       <c r="K34" t="n">
-        <v>33.14744364038433</v>
+        <v>157.8790353180098</v>
       </c>
       <c r="L34" t="n">
-        <v>214.9854574806266</v>
+        <v>145.7371912313031</v>
       </c>
       <c r="M34" t="n">
-        <v>228.7819109205213</v>
+        <v>74.54705106163632</v>
       </c>
       <c r="N34" t="n">
         <v>78.26400034546776</v>
@@ -37245,7 +37245,7 @@
         <v>24.25472746205653</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.74971718326307</v>
+        <v>86.74971718326304</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.65431476273184</v>
+        <v>11.65431476273186</v>
       </c>
       <c r="J35" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K35" t="n">
-        <v>370.2665827169757</v>
+        <v>167.3061666485799</v>
       </c>
       <c r="L35" t="n">
         <v>260.3627682358878</v>
@@ -37321,16 +37321,16 @@
         <v>234.4810674998623</v>
       </c>
       <c r="P35" t="n">
-        <v>162.0692339700738</v>
+        <v>365.0296500384697</v>
       </c>
       <c r="Q35" t="n">
-        <v>184.2940187004714</v>
+        <v>246.6658837035793</v>
       </c>
       <c r="R35" t="n">
-        <v>84.3259576716361</v>
+        <v>21.9540926685276</v>
       </c>
       <c r="S35" t="n">
-        <v>5.271169388130824</v>
+        <v>5.271169388130854</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.092201237758559</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.092201237758437</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L37" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M37" t="n">
         <v>74.54705106163632</v>
@@ -37537,19 +37537,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.65431476273184</v>
+        <v>11.65431476273186</v>
       </c>
       <c r="J38" t="n">
-        <v>30.25320897194572</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K38" t="n">
         <v>167.3061666485799</v>
       </c>
       <c r="L38" t="n">
-        <v>463.3231843042836</v>
+        <v>260.3627682358878</v>
       </c>
       <c r="M38" t="n">
-        <v>306.4780345536437</v>
+        <v>447.0665856189302</v>
       </c>
       <c r="N38" t="n">
         <v>296.6573740648208</v>
@@ -37561,13 +37561,13 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q38" t="n">
-        <v>184.2940187004704</v>
+        <v>246.6658837035793</v>
       </c>
       <c r="R38" t="n">
-        <v>84.3259576716361</v>
+        <v>84.32595767163613</v>
       </c>
       <c r="S38" t="n">
-        <v>5.271169388130824</v>
+        <v>5.271169388130854</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.38892756098266</v>
+        <v>24.38892756098221</v>
       </c>
       <c r="K39" t="n">
         <v>169.5844033430592</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4.092201237758344</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.092201237758581</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L40" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M40" t="n">
         <v>74.54705106163632</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.65431476273181</v>
+        <v>11.65431476273178</v>
       </c>
       <c r="J41" t="n">
-        <v>233.2136250403416</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K41" t="n">
         <v>167.3061666485799</v>
@@ -37792,19 +37792,19 @@
         <v>296.6573740648208</v>
       </c>
       <c r="O41" t="n">
-        <v>234.4810674998623</v>
+        <v>380.3407879532814</v>
       </c>
       <c r="P41" t="n">
-        <v>162.0692339700738</v>
+        <v>365.0296500384696</v>
       </c>
       <c r="Q41" t="n">
-        <v>184.2940187004711</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32595767163608</v>
+        <v>84.32595767163605</v>
       </c>
       <c r="S41" t="n">
-        <v>5.271169388130795</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>24.38892756098308</v>
       </c>
       <c r="K42" t="n">
-        <v>169.5844033430594</v>
+        <v>169.5844033430592</v>
       </c>
       <c r="L42" t="n">
         <v>290.0518010239268</v>
@@ -37877,7 +37877,7 @@
         <v>235.2914911319574</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.0560605926</v>
+        <v>104.0560605926005</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.092201237758796</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L43" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M43" t="n">
         <v>74.54705106163632</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.092201237758925</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.65431476273186</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.2136250403416</v>
+        <v>30.25320897194573</v>
       </c>
       <c r="K44" t="n">
         <v>167.3061666485799</v>
       </c>
       <c r="L44" t="n">
-        <v>260.3627682358878</v>
+        <v>463.3231843042836</v>
       </c>
       <c r="M44" t="n">
-        <v>306.4780345536437</v>
+        <v>340.0864419849036</v>
       </c>
       <c r="N44" t="n">
         <v>296.6573740648208</v>
@@ -38032,16 +38032,16 @@
         <v>234.4810674998623</v>
       </c>
       <c r="P44" t="n">
-        <v>162.0692339700738</v>
+        <v>365.0296500384697</v>
       </c>
       <c r="Q44" t="n">
-        <v>184.2940187004711</v>
+        <v>43.70546763518337</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32595767163613</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.271169388130852</v>
+        <v>5.271169388130826</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4.092201237758451</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.644175459124945</v>
+        <v>3.644175459124948</v>
       </c>
       <c r="L46" t="n">
-        <v>60.75059762174162</v>
+        <v>60.75059762174163</v>
       </c>
       <c r="M46" t="n">
         <v>74.54705106163632</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.092201237758523</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
